--- a/module/waapi/waapi_音频资源导入自动化/资源导入记录表.xlsx
+++ b/module/waapi/waapi_音频资源导入自动化/资源导入记录表.xlsx
@@ -1327,7 +1327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G700"/>
+  <dimension ref="A1:G759"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A592" activePane="bottomLeft" state="frozen"/>
@@ -9639,328 +9639,328 @@
       <c r="G456" s="3" t="n"/>
     </row>
     <row r="457" customFormat="1" s="2">
-      <c r="A457" s="11" t="inlineStr">
+      <c r="A457" s="16" t="inlineStr">
         <is>
           <t>VO_C01_32_Battle</t>
         </is>
       </c>
-      <c r="B457" s="11" t="inlineStr">
+      <c r="B457" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_01</t>
         </is>
       </c>
-      <c r="C457" s="11" t="n"/>
-      <c r="D457" s="11" t="n"/>
-      <c r="E457" s="11" t="n"/>
-      <c r="F457" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G457" s="11" t="n"/>
+      <c r="C457" s="16" t="n"/>
+      <c r="D457" s="16" t="n"/>
+      <c r="E457" s="16" t="n"/>
+      <c r="F457" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G457" s="16" t="n"/>
     </row>
     <row r="458" customFormat="1" s="2">
-      <c r="A458" s="11" t="inlineStr">
+      <c r="A458" s="16" t="inlineStr">
         <is>
           <t>VO_C01_33_Battle</t>
         </is>
       </c>
-      <c r="B458" s="11" t="inlineStr">
+      <c r="B458" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_02</t>
         </is>
       </c>
-      <c r="C458" s="11" t="n"/>
-      <c r="D458" s="11" t="n"/>
-      <c r="E458" s="11" t="n"/>
-      <c r="F458" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G458" s="11" t="n"/>
+      <c r="C458" s="16" t="n"/>
+      <c r="D458" s="16" t="n"/>
+      <c r="E458" s="16" t="n"/>
+      <c r="F458" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G458" s="16" t="n"/>
     </row>
     <row r="459" customFormat="1" s="2">
-      <c r="A459" s="11" t="inlineStr">
+      <c r="A459" s="16" t="inlineStr">
         <is>
           <t>VO_C01_43_Battle</t>
         </is>
       </c>
-      <c r="B459" s="11" t="inlineStr">
+      <c r="B459" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_03</t>
         </is>
       </c>
-      <c r="C459" s="11" t="n"/>
-      <c r="D459" s="11" t="n"/>
-      <c r="E459" s="11" t="n"/>
-      <c r="F459" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G459" s="11" t="n"/>
+      <c r="C459" s="16" t="n"/>
+      <c r="D459" s="16" t="n"/>
+      <c r="E459" s="16" t="n"/>
+      <c r="F459" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G459" s="16" t="n"/>
     </row>
     <row r="460" customFormat="1" s="2">
-      <c r="A460" s="11" t="inlineStr">
+      <c r="A460" s="16" t="inlineStr">
         <is>
           <t>VO_C01_44_Battle</t>
         </is>
       </c>
-      <c r="B460" s="11" t="inlineStr">
+      <c r="B460" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_04</t>
         </is>
       </c>
-      <c r="C460" s="11" t="n"/>
-      <c r="D460" s="11" t="n"/>
-      <c r="E460" s="11" t="n"/>
-      <c r="F460" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G460" s="11" t="n"/>
+      <c r="C460" s="16" t="n"/>
+      <c r="D460" s="16" t="n"/>
+      <c r="E460" s="16" t="n"/>
+      <c r="F460" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G460" s="16" t="n"/>
     </row>
     <row r="461" customFormat="1" s="2">
-      <c r="A461" s="11" t="inlineStr">
+      <c r="A461" s="16" t="inlineStr">
         <is>
           <t>VO_C01_42_Battle</t>
         </is>
       </c>
-      <c r="B461" s="11" t="inlineStr">
+      <c r="B461" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_05</t>
         </is>
       </c>
-      <c r="C461" s="11" t="n"/>
-      <c r="D461" s="11" t="n"/>
-      <c r="E461" s="11" t="n"/>
-      <c r="F461" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G461" s="11" t="n"/>
+      <c r="C461" s="16" t="n"/>
+      <c r="D461" s="16" t="n"/>
+      <c r="E461" s="16" t="n"/>
+      <c r="F461" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G461" s="16" t="n"/>
     </row>
     <row r="462" customFormat="1" s="2">
-      <c r="A462" s="11" t="inlineStr">
+      <c r="A462" s="16" t="inlineStr">
         <is>
           <t>VO_C01_36_Battle</t>
         </is>
       </c>
-      <c r="B462" s="11" t="inlineStr">
+      <c r="B462" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_06</t>
         </is>
       </c>
-      <c r="C462" s="11" t="n"/>
-      <c r="D462" s="11" t="n"/>
-      <c r="E462" s="11" t="n"/>
-      <c r="F462" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G462" s="11" t="n"/>
+      <c r="C462" s="16" t="n"/>
+      <c r="D462" s="16" t="n"/>
+      <c r="E462" s="16" t="n"/>
+      <c r="F462" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G462" s="16" t="n"/>
     </row>
     <row r="463" customFormat="1" s="2">
-      <c r="A463" s="6" t="inlineStr">
+      <c r="A463" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C01_Atk_Lit</t>
         </is>
       </c>
-      <c r="B463" s="6" t="inlineStr">
+      <c r="B463" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_07</t>
         </is>
       </c>
-      <c r="C463" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D463" s="6" t="n"/>
-      <c r="E463" s="6" t="n"/>
-      <c r="F463" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G463" s="6" t="n"/>
+      <c r="C463" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D463" s="16" t="n"/>
+      <c r="E463" s="16" t="n"/>
+      <c r="F463" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G463" s="16" t="n"/>
     </row>
     <row r="464" customFormat="1" s="2">
-      <c r="A464" s="15" t="inlineStr">
+      <c r="A464" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C02_Atk_Lit</t>
         </is>
       </c>
-      <c r="B464" s="15" t="inlineStr">
+      <c r="B464" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_08</t>
         </is>
       </c>
-      <c r="C464" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D464" s="15" t="n"/>
-      <c r="E464" s="15" t="n"/>
-      <c r="F464" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G464" s="15" t="n">
+      <c r="C464" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D464" s="16" t="n"/>
+      <c r="E464" s="16" t="n"/>
+      <c r="F464" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G464" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="465" customFormat="1" s="2">
-      <c r="A465" s="6" t="inlineStr">
+      <c r="A465" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C01_Atk_Mid</t>
         </is>
       </c>
-      <c r="B465" s="6" t="inlineStr">
+      <c r="B465" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_09</t>
         </is>
       </c>
-      <c r="C465" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D465" s="6" t="n"/>
-      <c r="E465" s="6" t="n"/>
-      <c r="F465" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G465" s="6" t="n"/>
+      <c r="C465" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D465" s="16" t="n"/>
+      <c r="E465" s="16" t="n"/>
+      <c r="F465" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G465" s="16" t="n"/>
     </row>
     <row r="466" customFormat="1" s="2">
-      <c r="A466" s="15" t="inlineStr">
+      <c r="A466" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C02_Atk_Mid</t>
         </is>
       </c>
-      <c r="B466" s="15" t="inlineStr">
+      <c r="B466" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_10</t>
         </is>
       </c>
-      <c r="C466" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D466" s="15" t="n"/>
-      <c r="E466" s="15" t="n"/>
-      <c r="F466" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G466" s="15" t="n">
+      <c r="C466" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D466" s="16" t="n"/>
+      <c r="E466" s="16" t="n"/>
+      <c r="F466" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G466" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="467" customFormat="1" s="2">
-      <c r="A467" s="6" t="inlineStr">
+      <c r="A467" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C01_Atk_Hvy</t>
         </is>
       </c>
-      <c r="B467" s="6" t="inlineStr">
+      <c r="B467" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_11</t>
         </is>
       </c>
-      <c r="C467" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D467" s="6" t="n"/>
-      <c r="E467" s="6" t="n"/>
-      <c r="F467" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G467" s="6" t="n"/>
+      <c r="C467" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D467" s="16" t="n"/>
+      <c r="E467" s="16" t="n"/>
+      <c r="F467" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G467" s="16" t="n"/>
     </row>
     <row r="468" customFormat="1" s="2">
-      <c r="A468" s="6" t="inlineStr">
+      <c r="A468" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C01_Focus_Start</t>
         </is>
       </c>
-      <c r="B468" s="6" t="inlineStr">
+      <c r="B468" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_12</t>
         </is>
       </c>
-      <c r="C468" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D468" s="6" t="n"/>
-      <c r="E468" s="6" t="n"/>
-      <c r="F468" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G468" s="6" t="n"/>
+      <c r="C468" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D468" s="16" t="n"/>
+      <c r="E468" s="16" t="n"/>
+      <c r="F468" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G468" s="16" t="n"/>
     </row>
     <row r="469" customFormat="1" s="2">
-      <c r="A469" s="6" t="inlineStr">
+      <c r="A469" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C01_Focus</t>
         </is>
       </c>
-      <c r="B469" s="6" t="inlineStr">
+      <c r="B469" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_13</t>
         </is>
       </c>
-      <c r="C469" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D469" s="6" t="n"/>
-      <c r="E469" s="6" t="n"/>
-      <c r="F469" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G469" s="6" t="n"/>
+      <c r="C469" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D469" s="16" t="n"/>
+      <c r="E469" s="16" t="n"/>
+      <c r="F469" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G469" s="16" t="n"/>
     </row>
     <row r="470" customFormat="1" s="2">
-      <c r="A470" s="11" t="inlineStr">
+      <c r="A470" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C01_Focus_R02</t>
         </is>
       </c>
-      <c r="B470" s="11" t="inlineStr">
+      <c r="B470" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_14</t>
         </is>
       </c>
-      <c r="C470" s="11" t="n"/>
-      <c r="D470" s="11" t="n"/>
-      <c r="E470" s="11" t="n"/>
-      <c r="F470" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G470" s="11" t="n"/>
+      <c r="C470" s="16" t="n"/>
+      <c r="D470" s="16" t="n"/>
+      <c r="E470" s="16" t="n"/>
+      <c r="F470" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G470" s="16" t="n"/>
     </row>
     <row r="471" customFormat="1" s="2">
-      <c r="A471" s="11" t="inlineStr">
+      <c r="A471" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C01_Focus_R03</t>
         </is>
       </c>
-      <c r="B471" s="11" t="inlineStr">
+      <c r="B471" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_15</t>
         </is>
       </c>
-      <c r="C471" s="11" t="n"/>
-      <c r="D471" s="11" t="n"/>
-      <c r="E471" s="11" t="n"/>
-      <c r="F471" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G471" s="11" t="n"/>
+      <c r="C471" s="16" t="n"/>
+      <c r="D471" s="16" t="n"/>
+      <c r="E471" s="16" t="n"/>
+      <c r="F471" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G471" s="16" t="n"/>
     </row>
     <row r="472" customFormat="1" s="2">
-      <c r="A472" s="6" t="inlineStr">
+      <c r="A472" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C01_Atk_Lit</t>
         </is>
       </c>
-      <c r="B472" s="6" t="inlineStr">
+      <c r="B472" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_16</t>
         </is>
       </c>
-      <c r="C472" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D472" s="6" t="n"/>
-      <c r="E472" s="6" t="n"/>
-      <c r="F472" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G472" s="6" t="n"/>
+      <c r="C472" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D472" s="16" t="n"/>
+      <c r="E472" s="16" t="n"/>
+      <c r="F472" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G472" s="16" t="n"/>
     </row>
     <row r="473" customFormat="1" s="2">
       <c r="A473" s="15" t="inlineStr">
@@ -9984,658 +9984,658 @@
       </c>
     </row>
     <row r="474" customFormat="1" s="2">
-      <c r="A474" s="11" t="inlineStr">
+      <c r="A474" s="16" t="inlineStr">
         <is>
           <t>VO_C01_40_Battle</t>
         </is>
       </c>
-      <c r="B474" s="11" t="inlineStr">
+      <c r="B474" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_18</t>
         </is>
       </c>
-      <c r="C474" s="11" t="n"/>
-      <c r="D474" s="11" t="n"/>
-      <c r="E474" s="11" t="n"/>
-      <c r="F474" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G474" s="11" t="n"/>
+      <c r="C474" s="16" t="n"/>
+      <c r="D474" s="16" t="n"/>
+      <c r="E474" s="16" t="n"/>
+      <c r="F474" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G474" s="16" t="n"/>
     </row>
     <row r="475" customFormat="1" s="2">
-      <c r="A475" s="11" t="inlineStr">
+      <c r="A475" s="16" t="inlineStr">
         <is>
           <t>VO_C01_41_Battle</t>
         </is>
       </c>
-      <c r="B475" s="11" t="inlineStr">
+      <c r="B475" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_19</t>
         </is>
       </c>
-      <c r="C475" s="11" t="n"/>
-      <c r="D475" s="11" t="n"/>
-      <c r="E475" s="11" t="n"/>
-      <c r="F475" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G475" s="11" t="n"/>
+      <c r="C475" s="16" t="n"/>
+      <c r="D475" s="16" t="n"/>
+      <c r="E475" s="16" t="n"/>
+      <c r="F475" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G475" s="16" t="n"/>
     </row>
     <row r="476" customFormat="1" s="2">
-      <c r="A476" s="11" t="inlineStr">
+      <c r="A476" s="16" t="inlineStr">
         <is>
           <t>VO_C01_38_Battle</t>
         </is>
       </c>
-      <c r="B476" s="11" t="inlineStr">
+      <c r="B476" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_20</t>
         </is>
       </c>
-      <c r="C476" s="11" t="n"/>
-      <c r="D476" s="11" t="n"/>
-      <c r="E476" s="11" t="n"/>
-      <c r="F476" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G476" s="11" t="n"/>
+      <c r="C476" s="16" t="n"/>
+      <c r="D476" s="16" t="n"/>
+      <c r="E476" s="16" t="n"/>
+      <c r="F476" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G476" s="16" t="n"/>
     </row>
     <row r="477" customFormat="1" s="2">
-      <c r="A477" s="11" t="inlineStr">
+      <c r="A477" s="16" t="inlineStr">
         <is>
           <t>VO_C01_39_Battle</t>
         </is>
       </c>
-      <c r="B477" s="11" t="inlineStr">
+      <c r="B477" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_21</t>
         </is>
       </c>
-      <c r="C477" s="11" t="n"/>
-      <c r="D477" s="11" t="n"/>
-      <c r="E477" s="11" t="n"/>
-      <c r="F477" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G477" s="11" t="n"/>
+      <c r="C477" s="16" t="n"/>
+      <c r="D477" s="16" t="n"/>
+      <c r="E477" s="16" t="n"/>
+      <c r="F477" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G477" s="16" t="n"/>
     </row>
     <row r="478" customFormat="1" s="2">
-      <c r="A478" s="11" t="inlineStr">
+      <c r="A478" s="16" t="inlineStr">
         <is>
           <t>VO_C01_34_Battle</t>
         </is>
       </c>
-      <c r="B478" s="11" t="inlineStr">
+      <c r="B478" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_22</t>
         </is>
       </c>
-      <c r="C478" s="11" t="n"/>
-      <c r="D478" s="11" t="n"/>
-      <c r="E478" s="11" t="n"/>
-      <c r="F478" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G478" s="11" t="n"/>
+      <c r="C478" s="16" t="n"/>
+      <c r="D478" s="16" t="n"/>
+      <c r="E478" s="16" t="n"/>
+      <c r="F478" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G478" s="16" t="n"/>
     </row>
     <row r="479" customFormat="1" s="2">
-      <c r="A479" s="11" t="inlineStr">
+      <c r="A479" s="16" t="inlineStr">
         <is>
           <t>VO_C01_35_Battle</t>
         </is>
       </c>
-      <c r="B479" s="11" t="inlineStr">
+      <c r="B479" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_23</t>
         </is>
       </c>
-      <c r="C479" s="11" t="n"/>
-      <c r="D479" s="11" t="n"/>
-      <c r="E479" s="11" t="n"/>
-      <c r="F479" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G479" s="11" t="n"/>
+      <c r="C479" s="16" t="n"/>
+      <c r="D479" s="16" t="n"/>
+      <c r="E479" s="16" t="n"/>
+      <c r="F479" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G479" s="16" t="n"/>
     </row>
     <row r="480" customFormat="1" s="2">
-      <c r="A480" s="6" t="inlineStr">
+      <c r="A480" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C01_Dodge</t>
         </is>
       </c>
-      <c r="B480" s="6" t="inlineStr">
+      <c r="B480" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_24</t>
         </is>
       </c>
-      <c r="C480" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D480" s="6" t="n"/>
-      <c r="E480" s="6" t="n"/>
-      <c r="F480" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G480" s="6" t="n"/>
+      <c r="C480" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D480" s="16" t="n"/>
+      <c r="E480" s="16" t="n"/>
+      <c r="F480" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G480" s="16" t="n"/>
     </row>
     <row r="481" customFormat="1" s="2">
-      <c r="A481" s="6" t="inlineStr">
+      <c r="A481" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C01_Dodge</t>
         </is>
       </c>
-      <c r="B481" s="6" t="inlineStr">
+      <c r="B481" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_25</t>
         </is>
       </c>
-      <c r="C481" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D481" s="6" t="n"/>
-      <c r="E481" s="6" t="n"/>
-      <c r="F481" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G481" s="6" t="n"/>
+      <c r="C481" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D481" s="16" t="n"/>
+      <c r="E481" s="16" t="n"/>
+      <c r="F481" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G481" s="16" t="n"/>
     </row>
     <row r="482" customFormat="1" s="2">
-      <c r="A482" s="6" t="inlineStr">
+      <c r="A482" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C01_Hit_Lit</t>
         </is>
       </c>
-      <c r="B482" s="6" t="inlineStr">
+      <c r="B482" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_26</t>
         </is>
       </c>
-      <c r="C482" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D482" s="6" t="n"/>
-      <c r="E482" s="6" t="n"/>
-      <c r="F482" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G482" s="6" t="n"/>
+      <c r="C482" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D482" s="16" t="n"/>
+      <c r="E482" s="16" t="n"/>
+      <c r="F482" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G482" s="16" t="n"/>
     </row>
     <row r="483" customFormat="1" s="2">
-      <c r="A483" s="6" t="inlineStr">
+      <c r="A483" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C01_Hit_Hvy</t>
         </is>
       </c>
-      <c r="B483" s="6" t="inlineStr">
+      <c r="B483" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_27</t>
         </is>
       </c>
-      <c r="C483" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D483" s="6" t="n"/>
-      <c r="E483" s="6" t="n"/>
-      <c r="F483" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G483" s="6" t="n"/>
+      <c r="C483" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D483" s="16" t="n"/>
+      <c r="E483" s="16" t="n"/>
+      <c r="F483" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G483" s="16" t="n"/>
     </row>
     <row r="484" customFormat="1" s="2">
-      <c r="A484" s="11" t="inlineStr">
+      <c r="A484" s="16" t="inlineStr">
         <is>
           <t>VO_C01_37_Battle</t>
         </is>
       </c>
-      <c r="B484" s="11" t="inlineStr">
+      <c r="B484" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C01_28</t>
         </is>
       </c>
-      <c r="C484" s="11" t="n"/>
-      <c r="D484" s="11" t="n"/>
-      <c r="E484" s="11" t="n"/>
-      <c r="F484" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G484" s="11" t="n"/>
+      <c r="C484" s="16" t="n"/>
+      <c r="D484" s="16" t="n"/>
+      <c r="E484" s="16" t="n"/>
+      <c r="F484" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G484" s="16" t="n"/>
     </row>
     <row r="485" customFormat="1" s="2">
-      <c r="A485" s="11" t="inlineStr">
+      <c r="A485" s="16" t="inlineStr">
         <is>
           <t>VO_C01_10_World</t>
         </is>
       </c>
-      <c r="B485" s="11" t="inlineStr">
+      <c r="B485" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_01</t>
         </is>
       </c>
-      <c r="C485" s="11" t="n"/>
-      <c r="D485" s="11" t="n"/>
-      <c r="E485" s="11" t="n"/>
-      <c r="F485" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G485" s="11" t="n"/>
+      <c r="C485" s="16" t="n"/>
+      <c r="D485" s="16" t="n"/>
+      <c r="E485" s="16" t="n"/>
+      <c r="F485" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G485" s="16" t="n"/>
     </row>
     <row r="486" customFormat="1" s="2">
-      <c r="A486" s="11" t="inlineStr">
+      <c r="A486" s="16" t="inlineStr">
         <is>
           <t>VO_C01_11_World</t>
         </is>
       </c>
-      <c r="B486" s="11" t="inlineStr">
+      <c r="B486" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_02</t>
         </is>
       </c>
-      <c r="C486" s="11" t="n"/>
-      <c r="D486" s="11" t="n"/>
-      <c r="E486" s="11" t="n"/>
-      <c r="F486" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G486" s="11" t="n"/>
+      <c r="C486" s="16" t="n"/>
+      <c r="D486" s="16" t="n"/>
+      <c r="E486" s="16" t="n"/>
+      <c r="F486" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G486" s="16" t="n"/>
     </row>
     <row r="487" customFormat="1" s="2">
-      <c r="A487" s="11" t="inlineStr">
+      <c r="A487" s="16" t="inlineStr">
         <is>
           <t>VO_C01_12_World</t>
         </is>
       </c>
-      <c r="B487" s="11" t="inlineStr">
+      <c r="B487" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_03</t>
         </is>
       </c>
-      <c r="C487" s="11" t="n"/>
-      <c r="D487" s="11" t="n"/>
-      <c r="E487" s="11" t="n"/>
-      <c r="F487" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G487" s="11" t="n"/>
+      <c r="C487" s="16" t="n"/>
+      <c r="D487" s="16" t="n"/>
+      <c r="E487" s="16" t="n"/>
+      <c r="F487" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G487" s="16" t="n"/>
     </row>
     <row r="488" customFormat="1" s="2">
-      <c r="A488" s="11" t="inlineStr">
+      <c r="A488" s="16" t="inlineStr">
         <is>
           <t>VO_C01_13_World</t>
         </is>
       </c>
-      <c r="B488" s="11" t="inlineStr">
+      <c r="B488" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_04</t>
         </is>
       </c>
-      <c r="C488" s="11" t="n"/>
-      <c r="D488" s="11" t="n"/>
-      <c r="E488" s="11" t="n"/>
-      <c r="F488" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G488" s="11" t="n"/>
+      <c r="C488" s="16" t="n"/>
+      <c r="D488" s="16" t="n"/>
+      <c r="E488" s="16" t="n"/>
+      <c r="F488" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G488" s="16" t="n"/>
     </row>
     <row r="489" customFormat="1" s="2">
-      <c r="A489" s="11" t="inlineStr">
+      <c r="A489" s="16" t="inlineStr">
         <is>
           <t>VO_C01_14_World</t>
         </is>
       </c>
-      <c r="B489" s="11" t="inlineStr">
+      <c r="B489" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_05</t>
         </is>
       </c>
-      <c r="C489" s="11" t="n"/>
-      <c r="D489" s="11" t="n"/>
-      <c r="E489" s="11" t="n"/>
-      <c r="F489" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G489" s="11" t="n"/>
+      <c r="C489" s="16" t="n"/>
+      <c r="D489" s="16" t="n"/>
+      <c r="E489" s="16" t="n"/>
+      <c r="F489" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G489" s="16" t="n"/>
     </row>
     <row r="490" customFormat="1" s="2">
-      <c r="A490" s="11" t="inlineStr">
+      <c r="A490" s="16" t="inlineStr">
         <is>
           <t>VO_C01_15_World</t>
         </is>
       </c>
-      <c r="B490" s="11" t="inlineStr">
+      <c r="B490" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_06</t>
         </is>
       </c>
-      <c r="C490" s="11" t="n"/>
-      <c r="D490" s="11" t="n"/>
-      <c r="E490" s="11" t="n"/>
-      <c r="F490" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G490" s="11" t="n"/>
+      <c r="C490" s="16" t="n"/>
+      <c r="D490" s="16" t="n"/>
+      <c r="E490" s="16" t="n"/>
+      <c r="F490" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G490" s="16" t="n"/>
     </row>
     <row r="491" customFormat="1" s="2">
-      <c r="A491" s="11" t="inlineStr">
+      <c r="A491" s="16" t="inlineStr">
         <is>
           <t>VO_C01_16_World</t>
         </is>
       </c>
-      <c r="B491" s="11" t="inlineStr">
+      <c r="B491" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_07</t>
         </is>
       </c>
-      <c r="C491" s="11" t="n"/>
-      <c r="D491" s="11" t="n"/>
-      <c r="E491" s="11" t="n"/>
-      <c r="F491" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G491" s="11" t="n"/>
+      <c r="C491" s="16" t="n"/>
+      <c r="D491" s="16" t="n"/>
+      <c r="E491" s="16" t="n"/>
+      <c r="F491" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G491" s="16" t="n"/>
     </row>
     <row r="492" customFormat="1" s="2">
-      <c r="A492" s="11" t="inlineStr">
+      <c r="A492" s="16" t="inlineStr">
         <is>
           <t>VO_C01_17_World</t>
         </is>
       </c>
-      <c r="B492" s="11" t="inlineStr">
+      <c r="B492" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_08</t>
         </is>
       </c>
-      <c r="C492" s="11" t="n"/>
-      <c r="D492" s="11" t="n"/>
-      <c r="E492" s="11" t="n"/>
-      <c r="F492" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G492" s="11" t="n"/>
+      <c r="C492" s="16" t="n"/>
+      <c r="D492" s="16" t="n"/>
+      <c r="E492" s="16" t="n"/>
+      <c r="F492" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G492" s="16" t="n"/>
     </row>
     <row r="493" customFormat="1" s="2">
-      <c r="A493" s="11" t="inlineStr">
+      <c r="A493" s="16" t="inlineStr">
         <is>
           <t>VO_C01_18_World</t>
         </is>
       </c>
-      <c r="B493" s="11" t="inlineStr">
+      <c r="B493" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_09</t>
         </is>
       </c>
-      <c r="C493" s="11" t="n"/>
-      <c r="D493" s="11" t="n"/>
-      <c r="E493" s="11" t="n"/>
-      <c r="F493" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G493" s="11" t="n"/>
+      <c r="C493" s="16" t="n"/>
+      <c r="D493" s="16" t="n"/>
+      <c r="E493" s="16" t="n"/>
+      <c r="F493" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G493" s="16" t="n"/>
     </row>
     <row r="494" customFormat="1" s="2">
-      <c r="A494" s="11" t="inlineStr">
+      <c r="A494" s="16" t="inlineStr">
         <is>
           <t>VO_C01_19_World</t>
         </is>
       </c>
-      <c r="B494" s="11" t="inlineStr">
+      <c r="B494" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_10</t>
         </is>
       </c>
-      <c r="C494" s="11" t="n"/>
-      <c r="D494" s="11" t="n"/>
-      <c r="E494" s="11" t="n"/>
-      <c r="F494" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G494" s="11" t="n"/>
+      <c r="C494" s="16" t="n"/>
+      <c r="D494" s="16" t="n"/>
+      <c r="E494" s="16" t="n"/>
+      <c r="F494" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G494" s="16" t="n"/>
     </row>
     <row r="495" customFormat="1" s="2">
-      <c r="A495" s="11" t="inlineStr">
+      <c r="A495" s="16" t="inlineStr">
         <is>
           <t>VO_C01_20_World</t>
         </is>
       </c>
-      <c r="B495" s="11" t="inlineStr">
+      <c r="B495" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_11</t>
         </is>
       </c>
-      <c r="C495" s="11" t="n"/>
-      <c r="D495" s="11" t="n"/>
-      <c r="E495" s="11" t="n"/>
-      <c r="F495" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G495" s="11" t="n"/>
+      <c r="C495" s="16" t="n"/>
+      <c r="D495" s="16" t="n"/>
+      <c r="E495" s="16" t="n"/>
+      <c r="F495" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G495" s="16" t="n"/>
     </row>
     <row r="496" customFormat="1" s="2">
-      <c r="A496" s="11" t="inlineStr">
+      <c r="A496" s="16" t="inlineStr">
         <is>
           <t>VO_C01_21_World</t>
         </is>
       </c>
-      <c r="B496" s="11" t="inlineStr">
+      <c r="B496" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_12</t>
         </is>
       </c>
-      <c r="C496" s="11" t="n"/>
-      <c r="D496" s="11" t="n"/>
-      <c r="E496" s="11" t="n"/>
-      <c r="F496" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G496" s="11" t="n"/>
+      <c r="C496" s="16" t="n"/>
+      <c r="D496" s="16" t="n"/>
+      <c r="E496" s="16" t="n"/>
+      <c r="F496" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G496" s="16" t="n"/>
     </row>
     <row r="497" customFormat="1" s="2">
-      <c r="A497" s="11" t="inlineStr">
+      <c r="A497" s="16" t="inlineStr">
         <is>
           <t>VO_C01_22_World</t>
         </is>
       </c>
-      <c r="B497" s="11" t="inlineStr">
+      <c r="B497" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_13</t>
         </is>
       </c>
-      <c r="C497" s="11" t="n"/>
-      <c r="D497" s="11" t="n"/>
-      <c r="E497" s="11" t="n"/>
-      <c r="F497" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G497" s="11" t="n"/>
+      <c r="C497" s="16" t="n"/>
+      <c r="D497" s="16" t="n"/>
+      <c r="E497" s="16" t="n"/>
+      <c r="F497" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G497" s="16" t="n"/>
     </row>
     <row r="498" customFormat="1" s="2">
-      <c r="A498" s="11" t="inlineStr">
+      <c r="A498" s="16" t="inlineStr">
         <is>
           <t>VO_C01_23_World</t>
         </is>
       </c>
-      <c r="B498" s="11" t="inlineStr">
+      <c r="B498" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_14</t>
         </is>
       </c>
-      <c r="C498" s="11" t="n"/>
-      <c r="D498" s="11" t="n"/>
-      <c r="E498" s="11" t="n"/>
-      <c r="F498" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G498" s="11" t="n"/>
+      <c r="C498" s="16" t="n"/>
+      <c r="D498" s="16" t="n"/>
+      <c r="E498" s="16" t="n"/>
+      <c r="F498" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G498" s="16" t="n"/>
     </row>
     <row r="499" customFormat="1" s="2">
-      <c r="A499" s="11" t="inlineStr">
+      <c r="A499" s="16" t="inlineStr">
         <is>
           <t>VO_C01_24_World</t>
         </is>
       </c>
-      <c r="B499" s="11" t="inlineStr">
+      <c r="B499" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_15</t>
         </is>
       </c>
-      <c r="C499" s="11" t="n"/>
-      <c r="D499" s="11" t="n"/>
-      <c r="E499" s="11" t="n"/>
-      <c r="F499" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G499" s="11" t="n"/>
+      <c r="C499" s="16" t="n"/>
+      <c r="D499" s="16" t="n"/>
+      <c r="E499" s="16" t="n"/>
+      <c r="F499" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G499" s="16" t="n"/>
     </row>
     <row r="500" customFormat="1" s="2">
-      <c r="A500" s="11" t="inlineStr">
+      <c r="A500" s="16" t="inlineStr">
         <is>
           <t>VO_C01_25_World</t>
         </is>
       </c>
-      <c r="B500" s="11" t="inlineStr">
+      <c r="B500" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_16</t>
         </is>
       </c>
-      <c r="C500" s="11" t="n"/>
-      <c r="D500" s="11" t="n"/>
-      <c r="E500" s="11" t="n"/>
-      <c r="F500" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G500" s="11" t="n"/>
+      <c r="C500" s="16" t="n"/>
+      <c r="D500" s="16" t="n"/>
+      <c r="E500" s="16" t="n"/>
+      <c r="F500" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G500" s="16" t="n"/>
     </row>
     <row r="501" customFormat="1" s="2">
-      <c r="A501" s="11" t="inlineStr">
+      <c r="A501" s="16" t="inlineStr">
         <is>
           <t>VO_C01_26_World</t>
         </is>
       </c>
-      <c r="B501" s="11" t="inlineStr">
+      <c r="B501" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_17</t>
         </is>
       </c>
-      <c r="C501" s="11" t="n"/>
-      <c r="D501" s="11" t="n"/>
-      <c r="E501" s="11" t="n"/>
-      <c r="F501" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G501" s="11" t="n"/>
+      <c r="C501" s="16" t="n"/>
+      <c r="D501" s="16" t="n"/>
+      <c r="E501" s="16" t="n"/>
+      <c r="F501" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G501" s="16" t="n"/>
     </row>
     <row r="502" customFormat="1" s="2">
-      <c r="A502" s="11" t="inlineStr">
+      <c r="A502" s="16" t="inlineStr">
         <is>
           <t>VO_C01_27_World</t>
         </is>
       </c>
-      <c r="B502" s="11" t="inlineStr">
+      <c r="B502" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_18</t>
         </is>
       </c>
-      <c r="C502" s="11" t="n"/>
-      <c r="D502" s="11" t="n"/>
-      <c r="E502" s="11" t="n"/>
-      <c r="F502" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G502" s="11" t="n"/>
+      <c r="C502" s="16" t="n"/>
+      <c r="D502" s="16" t="n"/>
+      <c r="E502" s="16" t="n"/>
+      <c r="F502" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G502" s="16" t="n"/>
     </row>
     <row r="503" customFormat="1" s="2">
-      <c r="A503" s="11" t="inlineStr">
+      <c r="A503" s="16" t="inlineStr">
         <is>
           <t>VO_C01_28_World</t>
         </is>
       </c>
-      <c r="B503" s="11" t="inlineStr">
+      <c r="B503" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_19</t>
         </is>
       </c>
-      <c r="C503" s="11" t="n"/>
-      <c r="D503" s="11" t="n"/>
-      <c r="E503" s="11" t="n"/>
-      <c r="F503" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G503" s="11" t="n"/>
+      <c r="C503" s="16" t="n"/>
+      <c r="D503" s="16" t="n"/>
+      <c r="E503" s="16" t="n"/>
+      <c r="F503" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G503" s="16" t="n"/>
     </row>
     <row r="504" customFormat="1" s="2">
-      <c r="A504" s="11" t="inlineStr">
+      <c r="A504" s="16" t="inlineStr">
         <is>
           <t>VO_C01_29_World</t>
         </is>
       </c>
-      <c r="B504" s="11" t="inlineStr">
+      <c r="B504" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_20</t>
         </is>
       </c>
-      <c r="C504" s="11" t="n"/>
-      <c r="D504" s="11" t="n"/>
-      <c r="E504" s="11" t="n"/>
-      <c r="F504" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G504" s="11" t="n"/>
+      <c r="C504" s="16" t="n"/>
+      <c r="D504" s="16" t="n"/>
+      <c r="E504" s="16" t="n"/>
+      <c r="F504" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G504" s="16" t="n"/>
     </row>
     <row r="505" customFormat="1" s="2">
-      <c r="A505" s="11" t="inlineStr">
+      <c r="A505" s="16" t="inlineStr">
         <is>
           <t>VO_C01_30_World</t>
         </is>
       </c>
-      <c r="B505" s="11" t="inlineStr">
+      <c r="B505" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_21</t>
         </is>
       </c>
-      <c r="C505" s="11" t="n"/>
-      <c r="D505" s="11" t="n"/>
-      <c r="E505" s="11" t="n"/>
-      <c r="F505" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G505" s="11" t="n"/>
+      <c r="C505" s="16" t="n"/>
+      <c r="D505" s="16" t="n"/>
+      <c r="E505" s="16" t="n"/>
+      <c r="F505" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G505" s="16" t="n"/>
     </row>
     <row r="506" customFormat="1" s="2">
-      <c r="A506" s="11" t="inlineStr">
+      <c r="A506" s="16" t="inlineStr">
         <is>
           <t>VO_C01_31_World</t>
         </is>
       </c>
-      <c r="B506" s="11" t="inlineStr">
+      <c r="B506" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C01_22</t>
         </is>
       </c>
-      <c r="C506" s="11" t="n"/>
-      <c r="D506" s="11" t="n"/>
-      <c r="E506" s="11" t="n"/>
-      <c r="F506" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G506" s="11" t="n"/>
+      <c r="C506" s="16" t="n"/>
+      <c r="D506" s="16" t="n"/>
+      <c r="E506" s="16" t="n"/>
+      <c r="F506" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G506" s="16" t="n"/>
     </row>
     <row r="507" customFormat="1" s="2">
-      <c r="A507" s="11" t="inlineStr">
+      <c r="A507" s="16" t="inlineStr">
         <is>
           <t>VO_C01_01_Menu</t>
         </is>
       </c>
-      <c r="B507" s="11" t="inlineStr">
+      <c r="B507" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Menu_C01_01</t>
         </is>
       </c>
-      <c r="C507" s="11" t="n"/>
-      <c r="D507" s="11" t="n"/>
-      <c r="E507" s="11" t="n"/>
-      <c r="F507" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G507" s="11" t="n"/>
+      <c r="C507" s="16" t="n"/>
+      <c r="D507" s="16" t="n"/>
+      <c r="E507" s="16" t="n"/>
+      <c r="F507" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G507" s="16" t="n"/>
     </row>
     <row r="508" customFormat="1" s="2">
       <c r="A508" s="2" t="inlineStr">
@@ -10680,1130 +10680,1136 @@
       <c r="G509" s="3" t="n"/>
     </row>
     <row r="510" customFormat="1" s="2">
-      <c r="A510" s="11" t="inlineStr">
+      <c r="A510" s="16" t="inlineStr">
         <is>
           <t>VO_C01_04_Menu</t>
         </is>
       </c>
-      <c r="B510" s="11" t="inlineStr">
+      <c r="B510" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Menu_C01_04</t>
         </is>
       </c>
-      <c r="C510" s="11" t="n"/>
-      <c r="D510" s="11" t="n"/>
-      <c r="E510" s="11" t="n"/>
-      <c r="F510" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G510" s="11" t="n"/>
+      <c r="C510" s="16" t="n"/>
+      <c r="D510" s="16" t="n"/>
+      <c r="E510" s="16" t="n"/>
+      <c r="F510" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G510" s="16" t="n"/>
     </row>
     <row r="511" customFormat="1" s="2">
-      <c r="A511" s="11" t="inlineStr">
+      <c r="A511" s="16" t="inlineStr">
         <is>
           <t>VO_C01_05_Menu</t>
         </is>
       </c>
-      <c r="B511" s="11" t="inlineStr">
+      <c r="B511" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Menu_C01_05</t>
         </is>
       </c>
-      <c r="C511" s="11" t="n"/>
-      <c r="D511" s="11" t="n"/>
-      <c r="E511" s="11" t="n"/>
-      <c r="F511" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G511" s="11" t="n"/>
+      <c r="C511" s="16" t="n"/>
+      <c r="D511" s="16" t="n"/>
+      <c r="E511" s="16" t="n"/>
+      <c r="F511" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G511" s="16" t="n"/>
     </row>
     <row r="512" customFormat="1" s="2">
-      <c r="A512" s="11" t="inlineStr">
+      <c r="A512" s="16" t="inlineStr">
         <is>
           <t>VO_C01_06_Menu</t>
         </is>
       </c>
-      <c r="B512" s="11" t="inlineStr">
+      <c r="B512" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Menu_C01_06</t>
         </is>
       </c>
-      <c r="C512" s="11" t="n"/>
-      <c r="D512" s="11" t="n"/>
-      <c r="E512" s="11" t="n"/>
-      <c r="F512" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G512" s="11" t="n"/>
+      <c r="C512" s="16" t="n"/>
+      <c r="D512" s="16" t="n"/>
+      <c r="E512" s="16" t="n"/>
+      <c r="F512" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G512" s="16" t="n"/>
     </row>
     <row r="513" customFormat="1" s="2">
-      <c r="A513" s="11" t="inlineStr">
+      <c r="A513" s="16" t="inlineStr">
         <is>
           <t>VO_C01_07_Menu</t>
         </is>
       </c>
-      <c r="B513" s="11" t="inlineStr">
+      <c r="B513" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Menu_C01_07</t>
         </is>
       </c>
-      <c r="C513" s="11" t="n"/>
-      <c r="D513" s="11" t="n"/>
-      <c r="E513" s="11" t="n"/>
-      <c r="F513" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G513" s="11" t="n"/>
+      <c r="C513" s="16" t="n"/>
+      <c r="D513" s="16" t="n"/>
+      <c r="E513" s="16" t="n"/>
+      <c r="F513" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G513" s="16" t="n"/>
     </row>
     <row r="514" customFormat="1" s="2">
-      <c r="A514" s="11" t="inlineStr">
+      <c r="A514" s="16" t="inlineStr">
         <is>
           <t>VO_C01_08_Menu</t>
         </is>
       </c>
-      <c r="B514" s="11" t="inlineStr">
+      <c r="B514" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Menu_C01_08</t>
         </is>
       </c>
-      <c r="C514" s="11" t="n"/>
-      <c r="D514" s="11" t="n"/>
-      <c r="E514" s="11" t="n"/>
-      <c r="F514" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G514" s="11" t="n"/>
+      <c r="C514" s="16" t="n"/>
+      <c r="D514" s="16" t="n"/>
+      <c r="E514" s="16" t="n"/>
+      <c r="F514" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G514" s="16" t="n"/>
     </row>
     <row r="515" customFormat="1" s="2">
-      <c r="A515" s="11" t="inlineStr">
+      <c r="A515" s="16" t="inlineStr">
         <is>
           <t>VO_C01_09_Menu</t>
         </is>
       </c>
-      <c r="B515" s="11" t="inlineStr">
+      <c r="B515" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Menu_C01_09</t>
         </is>
       </c>
-      <c r="C515" s="11" t="n"/>
-      <c r="D515" s="11" t="n"/>
-      <c r="E515" s="11" t="n"/>
-      <c r="F515" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G515" s="11" t="n"/>
+      <c r="C515" s="16" t="n"/>
+      <c r="D515" s="16" t="n"/>
+      <c r="E515" s="16" t="n"/>
+      <c r="F515" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G515" s="16" t="n"/>
     </row>
     <row r="516" customFormat="1" s="2">
-      <c r="A516" s="11" t="inlineStr">
+      <c r="A516" s="16" t="inlineStr">
         <is>
           <t>VO_C02_30_Battle</t>
         </is>
       </c>
-      <c r="B516" s="11" t="inlineStr">
+      <c r="B516" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_01</t>
         </is>
       </c>
-      <c r="C516" s="11" t="n"/>
-      <c r="D516" s="11" t="n"/>
-      <c r="E516" s="11" t="n"/>
-      <c r="F516" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G516" s="11" t="n"/>
+      <c r="C516" s="16" t="n"/>
+      <c r="D516" s="16" t="n"/>
+      <c r="E516" s="16" t="n"/>
+      <c r="F516" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G516" s="16" t="n"/>
     </row>
     <row r="517" customFormat="1" s="2">
-      <c r="A517" s="11" t="inlineStr">
+      <c r="A517" s="16" t="inlineStr">
         <is>
           <t>VO_C02_31_Battle</t>
         </is>
       </c>
-      <c r="B517" s="11" t="inlineStr">
+      <c r="B517" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_02</t>
         </is>
       </c>
-      <c r="C517" s="11" t="n"/>
-      <c r="D517" s="11" t="n"/>
-      <c r="E517" s="11" t="n"/>
-      <c r="F517" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G517" s="11" t="n"/>
+      <c r="C517" s="16" t="n"/>
+      <c r="D517" s="16" t="n"/>
+      <c r="E517" s="16" t="n"/>
+      <c r="F517" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G517" s="16" t="n"/>
     </row>
     <row r="518" customFormat="1" s="2">
-      <c r="A518" s="11" t="inlineStr">
+      <c r="A518" s="16" t="inlineStr">
         <is>
           <t>VO_C02_41_Battle</t>
         </is>
       </c>
-      <c r="B518" s="11" t="inlineStr">
+      <c r="B518" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_03</t>
         </is>
       </c>
-      <c r="C518" s="11" t="n"/>
-      <c r="D518" s="11" t="n"/>
-      <c r="E518" s="11" t="n"/>
-      <c r="F518" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G518" s="11" t="n"/>
+      <c r="C518" s="16" t="n"/>
+      <c r="D518" s="16" t="n"/>
+      <c r="E518" s="16" t="n"/>
+      <c r="F518" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G518" s="16" t="n"/>
     </row>
     <row r="519" customFormat="1" s="2">
-      <c r="A519" s="11" t="inlineStr">
+      <c r="A519" s="16" t="inlineStr">
         <is>
           <t>VO_C02_42_Battle</t>
         </is>
       </c>
-      <c r="B519" s="11" t="inlineStr">
+      <c r="B519" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_04</t>
         </is>
       </c>
-      <c r="C519" s="11" t="n"/>
-      <c r="D519" s="11" t="n"/>
-      <c r="E519" s="11" t="n"/>
-      <c r="F519" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G519" s="11" t="n"/>
+      <c r="C519" s="16" t="n"/>
+      <c r="D519" s="16" t="n"/>
+      <c r="E519" s="16" t="n"/>
+      <c r="F519" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G519" s="16" t="n"/>
     </row>
     <row r="520" customFormat="1" s="2">
-      <c r="A520" s="11" t="inlineStr">
+      <c r="A520" s="16" t="inlineStr">
         <is>
           <t>VO_C02_40_Battle</t>
         </is>
       </c>
-      <c r="B520" s="11" t="inlineStr">
+      <c r="B520" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_05</t>
         </is>
       </c>
-      <c r="C520" s="11" t="n"/>
-      <c r="D520" s="11" t="n"/>
-      <c r="E520" s="11" t="n"/>
-      <c r="F520" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G520" s="11" t="n"/>
+      <c r="C520" s="16" t="n"/>
+      <c r="D520" s="16" t="n"/>
+      <c r="E520" s="16" t="n"/>
+      <c r="F520" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G520" s="16" t="n"/>
     </row>
     <row r="521" customFormat="1" s="2">
-      <c r="A521" s="11" t="inlineStr">
+      <c r="A521" s="16" t="inlineStr">
         <is>
           <t>VO_C02_34_Battle</t>
         </is>
       </c>
-      <c r="B521" s="11" t="inlineStr">
+      <c r="B521" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_06</t>
         </is>
       </c>
-      <c r="C521" s="11" t="n"/>
-      <c r="D521" s="11" t="n"/>
-      <c r="E521" s="11" t="n"/>
-      <c r="F521" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G521" s="11" t="n"/>
+      <c r="C521" s="16" t="n"/>
+      <c r="D521" s="16" t="n"/>
+      <c r="E521" s="16" t="n"/>
+      <c r="F521" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G521" s="16" t="n"/>
     </row>
     <row r="522" customFormat="1" s="2">
-      <c r="A522" s="6" t="inlineStr">
+      <c r="A522" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C02_Atk_Lit</t>
         </is>
       </c>
-      <c r="B522" s="6" t="inlineStr">
+      <c r="B522" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_07</t>
         </is>
       </c>
-      <c r="C522" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D522" s="6" t="n"/>
-      <c r="E522" s="6" t="n"/>
-      <c r="F522" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G522" s="6" t="n"/>
+      <c r="C522" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D522" s="16" t="n"/>
+      <c r="E522" s="16" t="n"/>
+      <c r="F522" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G522" s="16" t="n"/>
     </row>
     <row r="523" customFormat="1" s="2">
-      <c r="A523" s="15" t="n"/>
-      <c r="B523" s="15" t="inlineStr">
+      <c r="A523" s="16" t="n"/>
+      <c r="B523" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_08</t>
         </is>
       </c>
-      <c r="C523" s="15" t="inlineStr">
+      <c r="C523" s="16" t="inlineStr">
         <is>
           <t>与1段共用同一条</t>
         </is>
       </c>
-      <c r="D523" s="15" t="n"/>
-      <c r="E523" s="15" t="n"/>
-      <c r="F523" s="15" t="n"/>
-      <c r="G523" s="15" t="n">
+      <c r="D523" s="16" t="n"/>
+      <c r="E523" s="16" t="n"/>
+      <c r="F523" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G523" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="524" customFormat="1" s="2">
-      <c r="A524" s="6" t="inlineStr">
+      <c r="A524" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C02_Atk_Mid</t>
         </is>
       </c>
-      <c r="B524" s="6" t="inlineStr">
+      <c r="B524" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_09</t>
         </is>
       </c>
-      <c r="C524" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D524" s="6" t="n"/>
-      <c r="E524" s="6" t="n"/>
-      <c r="F524" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G524" s="6" t="n"/>
+      <c r="C524" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D524" s="16" t="n"/>
+      <c r="E524" s="16" t="n"/>
+      <c r="F524" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G524" s="16" t="n"/>
     </row>
     <row r="525" customFormat="1" s="2">
-      <c r="A525" s="15" t="n"/>
-      <c r="B525" s="15" t="inlineStr">
+      <c r="A525" s="16" t="n"/>
+      <c r="B525" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_10</t>
         </is>
       </c>
-      <c r="C525" s="15" t="inlineStr">
+      <c r="C525" s="16" t="inlineStr">
         <is>
           <t>与1段共用同一条</t>
         </is>
       </c>
-      <c r="D525" s="15" t="n"/>
-      <c r="E525" s="15" t="n"/>
-      <c r="F525" s="15" t="n"/>
-      <c r="G525" s="15" t="n">
+      <c r="D525" s="16" t="n"/>
+      <c r="E525" s="16" t="n"/>
+      <c r="F525" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G525" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="526" customFormat="1" s="2">
-      <c r="A526" s="6" t="inlineStr">
+      <c r="A526" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C02_Atk_Hvy</t>
         </is>
       </c>
-      <c r="B526" s="6" t="inlineStr">
+      <c r="B526" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_11</t>
         </is>
       </c>
-      <c r="C526" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D526" s="6" t="n"/>
-      <c r="E526" s="6" t="n"/>
-      <c r="F526" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G526" s="6" t="n"/>
+      <c r="C526" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D526" s="16" t="n"/>
+      <c r="E526" s="16" t="n"/>
+      <c r="F526" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G526" s="16" t="n"/>
     </row>
     <row r="527" customFormat="1" s="2">
-      <c r="A527" s="6" t="inlineStr">
+      <c r="A527" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C02_Focus_Start</t>
         </is>
       </c>
-      <c r="B527" s="6" t="inlineStr">
+      <c r="B527" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_12</t>
         </is>
       </c>
-      <c r="C527" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D527" s="6" t="n"/>
-      <c r="E527" s="6" t="n"/>
-      <c r="F527" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G527" s="6" t="n"/>
+      <c r="C527" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D527" s="16" t="n"/>
+      <c r="E527" s="16" t="n"/>
+      <c r="F527" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G527" s="16" t="n"/>
     </row>
     <row r="528" customFormat="1" s="2">
-      <c r="A528" s="6" t="inlineStr">
+      <c r="A528" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C02_Focus</t>
         </is>
       </c>
-      <c r="B528" s="6" t="inlineStr">
+      <c r="B528" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_13</t>
         </is>
       </c>
-      <c r="C528" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D528" s="6" t="n"/>
-      <c r="E528" s="6" t="n"/>
-      <c r="F528" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G528" s="6" t="n"/>
+      <c r="C528" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D528" s="16" t="n"/>
+      <c r="E528" s="16" t="n"/>
+      <c r="F528" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G528" s="16" t="n"/>
     </row>
     <row r="529" customFormat="1" s="2">
-      <c r="A529" s="11" t="inlineStr">
+      <c r="A529" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C02_Focus_R02</t>
         </is>
       </c>
-      <c r="B529" s="11" t="inlineStr">
+      <c r="B529" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_14</t>
         </is>
       </c>
-      <c r="C529" s="11" t="n"/>
-      <c r="D529" s="11" t="n"/>
-      <c r="E529" s="11" t="n"/>
-      <c r="F529" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G529" s="11" t="n"/>
+      <c r="C529" s="16" t="n"/>
+      <c r="D529" s="16" t="n"/>
+      <c r="E529" s="16" t="n"/>
+      <c r="F529" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G529" s="16" t="n"/>
     </row>
     <row r="530" customFormat="1" s="2">
-      <c r="A530" s="11" t="inlineStr">
+      <c r="A530" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C02_Focus_R03</t>
         </is>
       </c>
-      <c r="B530" s="11" t="inlineStr">
+      <c r="B530" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_15</t>
         </is>
       </c>
-      <c r="C530" s="11" t="n"/>
-      <c r="D530" s="11" t="n"/>
-      <c r="E530" s="11" t="n"/>
-      <c r="F530" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G530" s="11" t="n"/>
+      <c r="C530" s="16" t="n"/>
+      <c r="D530" s="16" t="n"/>
+      <c r="E530" s="16" t="n"/>
+      <c r="F530" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G530" s="16" t="n"/>
     </row>
     <row r="531" customFormat="1" s="2">
-      <c r="A531" s="6" t="inlineStr">
+      <c r="A531" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C02_Atk_Mid</t>
         </is>
       </c>
-      <c r="B531" s="6" t="inlineStr">
+      <c r="B531" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_16</t>
         </is>
       </c>
-      <c r="C531" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D531" s="6" t="n"/>
-      <c r="E531" s="6" t="n"/>
-      <c r="F531" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G531" s="6" t="n"/>
+      <c r="C531" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D531" s="16" t="n"/>
+      <c r="E531" s="16" t="n"/>
+      <c r="F531" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G531" s="16" t="n"/>
     </row>
     <row r="532" customFormat="1" s="2">
-      <c r="A532" s="6" t="inlineStr">
+      <c r="A532" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C02_Atk_Lit</t>
         </is>
       </c>
-      <c r="B532" s="6" t="inlineStr">
+      <c r="B532" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_17</t>
         </is>
       </c>
-      <c r="C532" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D532" s="6" t="n"/>
-      <c r="E532" s="6" t="n"/>
-      <c r="F532" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G532" s="6" t="n"/>
+      <c r="C532" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D532" s="16" t="n"/>
+      <c r="E532" s="16" t="n"/>
+      <c r="F532" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G532" s="16" t="n"/>
     </row>
     <row r="533" customFormat="1" s="2">
-      <c r="A533" s="6" t="inlineStr">
+      <c r="A533" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C02_Atk_Lit</t>
         </is>
       </c>
-      <c r="B533" s="6" t="inlineStr">
+      <c r="B533" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_18</t>
         </is>
       </c>
-      <c r="C533" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D533" s="6" t="n"/>
-      <c r="E533" s="6" t="n"/>
-      <c r="F533" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G533" s="6" t="n"/>
+      <c r="C533" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D533" s="16" t="n"/>
+      <c r="E533" s="16" t="n"/>
+      <c r="F533" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G533" s="16" t="n"/>
     </row>
     <row r="534" customFormat="1" s="2">
-      <c r="A534" s="11" t="inlineStr">
+      <c r="A534" s="15" t="inlineStr">
         <is>
           <t>VO_C02_22_World</t>
         </is>
       </c>
-      <c r="B534" s="11" t="inlineStr">
+      <c r="B534" s="15" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_19</t>
         </is>
       </c>
-      <c r="C534" s="11" t="n"/>
-      <c r="D534" s="11" t="n"/>
-      <c r="E534" s="11" t="n"/>
-      <c r="F534" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G534" s="11" t="n"/>
+      <c r="C534" s="15" t="n"/>
+      <c r="D534" s="15" t="n"/>
+      <c r="E534" s="15" t="n"/>
+      <c r="F534" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G534" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="535" customFormat="1" s="2">
-      <c r="A535" s="11" t="inlineStr">
+      <c r="A535" s="16" t="inlineStr">
         <is>
           <t>VO_C02_38_Battle</t>
         </is>
       </c>
-      <c r="B535" s="11" t="inlineStr">
+      <c r="B535" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_20</t>
         </is>
       </c>
-      <c r="C535" s="11" t="n"/>
-      <c r="D535" s="11" t="n"/>
-      <c r="E535" s="11" t="n"/>
-      <c r="F535" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G535" s="11" t="n"/>
+      <c r="C535" s="16" t="n"/>
+      <c r="D535" s="16" t="n"/>
+      <c r="E535" s="16" t="n"/>
+      <c r="F535" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G535" s="16" t="n"/>
     </row>
     <row r="536" customFormat="1" s="2">
-      <c r="A536" s="11" t="inlineStr">
+      <c r="A536" s="16" t="inlineStr">
         <is>
           <t>VO_C02_39_Battle</t>
         </is>
       </c>
-      <c r="B536" s="11" t="inlineStr">
+      <c r="B536" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_21</t>
         </is>
       </c>
-      <c r="C536" s="11" t="n"/>
-      <c r="D536" s="11" t="n"/>
-      <c r="E536" s="11" t="n"/>
-      <c r="F536" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G536" s="11" t="n"/>
+      <c r="C536" s="16" t="n"/>
+      <c r="D536" s="16" t="n"/>
+      <c r="E536" s="16" t="n"/>
+      <c r="F536" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G536" s="16" t="n"/>
     </row>
     <row r="537" customFormat="1" s="2">
-      <c r="A537" s="11" t="inlineStr">
+      <c r="A537" s="16" t="inlineStr">
         <is>
           <t>VO_C02_36_Battle</t>
         </is>
       </c>
-      <c r="B537" s="11" t="inlineStr">
+      <c r="B537" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_22</t>
         </is>
       </c>
-      <c r="C537" s="11" t="n"/>
-      <c r="D537" s="11" t="n"/>
-      <c r="E537" s="11" t="n"/>
-      <c r="F537" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G537" s="11" t="n"/>
+      <c r="C537" s="16" t="n"/>
+      <c r="D537" s="16" t="n"/>
+      <c r="E537" s="16" t="n"/>
+      <c r="F537" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G537" s="16" t="n"/>
     </row>
     <row r="538" customFormat="1" s="2">
-      <c r="A538" s="11" t="inlineStr">
+      <c r="A538" s="16" t="inlineStr">
         <is>
           <t>VO_C02_37_Battle</t>
         </is>
       </c>
-      <c r="B538" s="11" t="inlineStr">
+      <c r="B538" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_23</t>
         </is>
       </c>
-      <c r="C538" s="11" t="n"/>
-      <c r="D538" s="11" t="n"/>
-      <c r="E538" s="11" t="n"/>
-      <c r="F538" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G538" s="11" t="n"/>
+      <c r="C538" s="16" t="n"/>
+      <c r="D538" s="16" t="n"/>
+      <c r="E538" s="16" t="n"/>
+      <c r="F538" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G538" s="16" t="n"/>
     </row>
     <row r="539" customFormat="1" s="2">
-      <c r="A539" s="11" t="inlineStr">
+      <c r="A539" s="16" t="inlineStr">
         <is>
           <t>VO_C02_32_Battle</t>
         </is>
       </c>
-      <c r="B539" s="11" t="inlineStr">
+      <c r="B539" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_24</t>
         </is>
       </c>
-      <c r="C539" s="11" t="n"/>
-      <c r="D539" s="11" t="n"/>
-      <c r="E539" s="11" t="n"/>
-      <c r="F539" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G539" s="11" t="n"/>
+      <c r="C539" s="16" t="n"/>
+      <c r="D539" s="16" t="n"/>
+      <c r="E539" s="16" t="n"/>
+      <c r="F539" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G539" s="16" t="n"/>
     </row>
     <row r="540" customFormat="1" s="2">
-      <c r="A540" s="11" t="inlineStr">
+      <c r="A540" s="16" t="inlineStr">
         <is>
           <t>VO_C02_33_Battle</t>
         </is>
       </c>
-      <c r="B540" s="11" t="inlineStr">
+      <c r="B540" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_25</t>
         </is>
       </c>
-      <c r="C540" s="11" t="n"/>
-      <c r="D540" s="11" t="n"/>
-      <c r="E540" s="11" t="n"/>
-      <c r="F540" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G540" s="11" t="n"/>
+      <c r="C540" s="16" t="n"/>
+      <c r="D540" s="16" t="n"/>
+      <c r="E540" s="16" t="n"/>
+      <c r="F540" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G540" s="16" t="n"/>
     </row>
     <row r="541" customFormat="1" s="2">
-      <c r="A541" s="6" t="inlineStr">
+      <c r="A541" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C02_Dodge</t>
         </is>
       </c>
-      <c r="B541" s="6" t="inlineStr">
+      <c r="B541" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_26</t>
         </is>
       </c>
-      <c r="C541" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D541" s="6" t="n"/>
-      <c r="E541" s="6" t="n"/>
-      <c r="F541" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G541" s="6" t="n"/>
+      <c r="C541" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D541" s="16" t="n"/>
+      <c r="E541" s="16" t="n"/>
+      <c r="F541" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G541" s="16" t="n"/>
     </row>
     <row r="542" customFormat="1" s="2">
-      <c r="A542" s="6" t="inlineStr">
+      <c r="A542" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C02_Dodge</t>
         </is>
       </c>
-      <c r="B542" s="6" t="inlineStr">
+      <c r="B542" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_27</t>
         </is>
       </c>
-      <c r="C542" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D542" s="6" t="n"/>
-      <c r="E542" s="6" t="n"/>
-      <c r="F542" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G542" s="6" t="n"/>
+      <c r="C542" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D542" s="16" t="n"/>
+      <c r="E542" s="16" t="n"/>
+      <c r="F542" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G542" s="16" t="n"/>
     </row>
     <row r="543" customFormat="1" s="2">
-      <c r="A543" s="6" t="inlineStr">
+      <c r="A543" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C02_Hit_Lit</t>
         </is>
       </c>
-      <c r="B543" s="6" t="inlineStr">
+      <c r="B543" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_28</t>
         </is>
       </c>
-      <c r="C543" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D543" s="6" t="n"/>
-      <c r="E543" s="6" t="n"/>
-      <c r="F543" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G543" s="6" t="n"/>
+      <c r="C543" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D543" s="16" t="n"/>
+      <c r="E543" s="16" t="n"/>
+      <c r="F543" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G543" s="16" t="n"/>
     </row>
     <row r="544" customFormat="1" s="2">
-      <c r="A544" s="6" t="inlineStr">
+      <c r="A544" s="16" t="inlineStr">
         <is>
           <t>Char_Shout_C02_Hit_Hvy</t>
         </is>
       </c>
-      <c r="B544" s="6" t="inlineStr">
+      <c r="B544" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_29</t>
         </is>
       </c>
-      <c r="C544" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D544" s="6" t="n"/>
-      <c r="E544" s="6" t="n"/>
-      <c r="F544" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G544" s="6" t="n"/>
+      <c r="C544" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D544" s="16" t="n"/>
+      <c r="E544" s="16" t="n"/>
+      <c r="F544" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G544" s="16" t="n"/>
     </row>
     <row r="545" customFormat="1" s="2">
-      <c r="A545" s="11" t="inlineStr">
+      <c r="A545" s="16" t="inlineStr">
         <is>
           <t>VO_C02_35_Battle</t>
         </is>
       </c>
-      <c r="B545" s="11" t="inlineStr">
+      <c r="B545" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Battle_C02_30</t>
         </is>
       </c>
-      <c r="C545" s="11" t="n"/>
-      <c r="D545" s="11" t="n"/>
-      <c r="E545" s="11" t="n"/>
-      <c r="F545" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G545" s="11" t="n"/>
+      <c r="C545" s="16" t="n"/>
+      <c r="D545" s="16" t="n"/>
+      <c r="E545" s="16" t="n"/>
+      <c r="F545" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G545" s="16" t="n"/>
     </row>
     <row r="546" customFormat="1" s="2">
-      <c r="A546" s="11" t="inlineStr">
+      <c r="A546" s="16" t="inlineStr">
         <is>
           <t>VO_C02_10_World</t>
         </is>
       </c>
-      <c r="B546" s="11" t="inlineStr">
+      <c r="B546" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_01</t>
         </is>
       </c>
-      <c r="C546" s="11" t="n"/>
-      <c r="D546" s="11" t="n"/>
-      <c r="E546" s="11" t="n"/>
-      <c r="F546" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G546" s="11" t="n"/>
+      <c r="C546" s="16" t="n"/>
+      <c r="D546" s="16" t="n"/>
+      <c r="E546" s="16" t="n"/>
+      <c r="F546" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G546" s="16" t="n"/>
     </row>
     <row r="547" customFormat="1" s="2">
-      <c r="A547" s="11" t="inlineStr">
+      <c r="A547" s="16" t="inlineStr">
         <is>
           <t>VO_C02_11_World</t>
         </is>
       </c>
-      <c r="B547" s="11" t="inlineStr">
+      <c r="B547" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_02</t>
         </is>
       </c>
-      <c r="C547" s="11" t="n"/>
-      <c r="D547" s="11" t="n"/>
-      <c r="E547" s="11" t="n"/>
-      <c r="F547" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G547" s="11" t="n"/>
+      <c r="C547" s="16" t="n"/>
+      <c r="D547" s="16" t="n"/>
+      <c r="E547" s="16" t="n"/>
+      <c r="F547" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G547" s="16" t="n"/>
     </row>
     <row r="548" customFormat="1" s="2">
-      <c r="A548" s="11" t="inlineStr">
+      <c r="A548" s="16" t="inlineStr">
         <is>
           <t>VO_C02_12_World</t>
         </is>
       </c>
-      <c r="B548" s="11" t="inlineStr">
+      <c r="B548" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_03</t>
         </is>
       </c>
-      <c r="C548" s="11" t="n"/>
-      <c r="D548" s="11" t="n"/>
-      <c r="E548" s="11" t="n"/>
-      <c r="F548" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G548" s="11" t="n"/>
+      <c r="C548" s="16" t="n"/>
+      <c r="D548" s="16" t="n"/>
+      <c r="E548" s="16" t="n"/>
+      <c r="F548" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G548" s="16" t="n"/>
     </row>
     <row r="549" customFormat="1" s="2">
-      <c r="A549" s="11" t="inlineStr">
+      <c r="A549" s="16" t="inlineStr">
         <is>
           <t>VO_C02_13_World</t>
         </is>
       </c>
-      <c r="B549" s="11" t="inlineStr">
+      <c r="B549" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_04</t>
         </is>
       </c>
-      <c r="C549" s="11" t="n"/>
-      <c r="D549" s="11" t="n"/>
-      <c r="E549" s="11" t="n"/>
-      <c r="F549" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G549" s="11" t="n"/>
+      <c r="C549" s="16" t="n"/>
+      <c r="D549" s="16" t="n"/>
+      <c r="E549" s="16" t="n"/>
+      <c r="F549" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G549" s="16" t="n"/>
     </row>
     <row r="550" customFormat="1" s="2">
-      <c r="A550" s="11" t="inlineStr">
+      <c r="A550" s="16" t="inlineStr">
         <is>
           <t>VO_C02_14_World</t>
         </is>
       </c>
-      <c r="B550" s="11" t="inlineStr">
+      <c r="B550" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_05</t>
         </is>
       </c>
-      <c r="C550" s="11" t="n"/>
-      <c r="D550" s="11" t="n"/>
-      <c r="E550" s="11" t="n"/>
-      <c r="F550" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G550" s="11" t="n"/>
+      <c r="C550" s="16" t="n"/>
+      <c r="D550" s="16" t="n"/>
+      <c r="E550" s="16" t="n"/>
+      <c r="F550" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G550" s="16" t="n"/>
     </row>
     <row r="551" customFormat="1" s="2">
-      <c r="A551" s="11" t="inlineStr">
+      <c r="A551" s="16" t="inlineStr">
         <is>
           <t>VO_C02_15_World</t>
         </is>
       </c>
-      <c r="B551" s="11" t="inlineStr">
+      <c r="B551" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_06</t>
         </is>
       </c>
-      <c r="C551" s="11" t="n"/>
-      <c r="D551" s="11" t="n"/>
-      <c r="E551" s="11" t="n"/>
-      <c r="F551" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G551" s="11" t="n"/>
+      <c r="C551" s="16" t="n"/>
+      <c r="D551" s="16" t="n"/>
+      <c r="E551" s="16" t="n"/>
+      <c r="F551" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G551" s="16" t="n"/>
     </row>
     <row r="552" customFormat="1" s="2">
-      <c r="A552" s="11" t="inlineStr">
+      <c r="A552" s="16" t="inlineStr">
         <is>
           <t>VO_C02_16_World</t>
         </is>
       </c>
-      <c r="B552" s="11" t="inlineStr">
+      <c r="B552" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_07</t>
         </is>
       </c>
-      <c r="C552" s="11" t="n"/>
-      <c r="D552" s="11" t="n"/>
-      <c r="E552" s="11" t="n"/>
-      <c r="F552" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G552" s="11" t="n"/>
+      <c r="C552" s="16" t="n"/>
+      <c r="D552" s="16" t="n"/>
+      <c r="E552" s="16" t="n"/>
+      <c r="F552" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G552" s="16" t="n"/>
     </row>
     <row r="553" customFormat="1" s="2">
-      <c r="A553" s="11" t="inlineStr">
+      <c r="A553" s="16" t="inlineStr">
         <is>
           <t>VO_C02_17_World</t>
         </is>
       </c>
-      <c r="B553" s="11" t="inlineStr">
+      <c r="B553" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_08</t>
         </is>
       </c>
-      <c r="C553" s="11" t="n"/>
-      <c r="D553" s="11" t="n"/>
-      <c r="E553" s="11" t="n"/>
-      <c r="F553" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G553" s="11" t="n"/>
+      <c r="C553" s="16" t="n"/>
+      <c r="D553" s="16" t="n"/>
+      <c r="E553" s="16" t="n"/>
+      <c r="F553" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G553" s="16" t="n"/>
     </row>
     <row r="554" customFormat="1" s="2">
-      <c r="A554" s="11" t="inlineStr">
+      <c r="A554" s="16" t="inlineStr">
         <is>
           <t>VO_C02_18_World</t>
         </is>
       </c>
-      <c r="B554" s="11" t="inlineStr">
+      <c r="B554" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_09</t>
         </is>
       </c>
-      <c r="C554" s="11" t="n"/>
-      <c r="D554" s="11" t="n"/>
-      <c r="E554" s="11" t="n"/>
-      <c r="F554" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G554" s="11" t="n"/>
+      <c r="C554" s="16" t="n"/>
+      <c r="D554" s="16" t="n"/>
+      <c r="E554" s="16" t="n"/>
+      <c r="F554" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G554" s="16" t="n"/>
     </row>
     <row r="555" customFormat="1" s="2">
-      <c r="A555" s="11" t="inlineStr">
+      <c r="A555" s="16" t="inlineStr">
         <is>
           <t>VO_C02_19_World</t>
         </is>
       </c>
-      <c r="B555" s="11" t="inlineStr">
+      <c r="B555" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_10</t>
         </is>
       </c>
-      <c r="C555" s="11" t="n"/>
-      <c r="D555" s="11" t="n"/>
-      <c r="E555" s="11" t="n"/>
-      <c r="F555" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G555" s="11" t="n"/>
+      <c r="C555" s="16" t="n"/>
+      <c r="D555" s="16" t="n"/>
+      <c r="E555" s="16" t="n"/>
+      <c r="F555" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G555" s="16" t="n"/>
     </row>
     <row r="556" customFormat="1" s="2">
-      <c r="A556" s="11" t="inlineStr">
+      <c r="A556" s="16" t="inlineStr">
         <is>
           <t>VO_C02_20_World</t>
         </is>
       </c>
-      <c r="B556" s="11" t="inlineStr">
+      <c r="B556" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_11</t>
         </is>
       </c>
-      <c r="C556" s="11" t="n"/>
-      <c r="D556" s="11" t="n"/>
-      <c r="E556" s="11" t="n"/>
-      <c r="F556" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G556" s="11" t="n"/>
+      <c r="C556" s="16" t="n"/>
+      <c r="D556" s="16" t="n"/>
+      <c r="E556" s="16" t="n"/>
+      <c r="F556" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G556" s="16" t="n"/>
     </row>
     <row r="557" customFormat="1" s="2">
-      <c r="A557" s="11" t="inlineStr">
+      <c r="A557" s="16" t="inlineStr">
         <is>
           <t>VO_C02_21_World</t>
         </is>
       </c>
-      <c r="B557" s="11" t="inlineStr">
+      <c r="B557" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_12</t>
         </is>
       </c>
-      <c r="C557" s="11" t="n"/>
-      <c r="D557" s="11" t="n"/>
-      <c r="E557" s="11" t="n"/>
-      <c r="F557" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G557" s="11" t="n"/>
+      <c r="C557" s="16" t="n"/>
+      <c r="D557" s="16" t="n"/>
+      <c r="E557" s="16" t="n"/>
+      <c r="F557" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G557" s="16" t="n"/>
     </row>
     <row r="558" customFormat="1" s="2">
-      <c r="A558" s="11" t="inlineStr">
+      <c r="A558" s="16" t="inlineStr">
         <is>
           <t>VO_C02_22_World</t>
         </is>
       </c>
-      <c r="B558" s="11" t="inlineStr">
+      <c r="B558" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_13</t>
         </is>
       </c>
-      <c r="C558" s="11" t="n"/>
-      <c r="D558" s="11" t="n"/>
-      <c r="E558" s="11" t="n"/>
-      <c r="F558" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G558" s="11" t="n"/>
+      <c r="C558" s="16" t="n"/>
+      <c r="D558" s="16" t="n"/>
+      <c r="E558" s="16" t="n"/>
+      <c r="F558" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G558" s="16" t="n"/>
     </row>
     <row r="559" customFormat="1" s="2">
-      <c r="A559" s="11" t="inlineStr">
+      <c r="A559" s="16" t="inlineStr">
         <is>
           <t>VO_C02_23_World</t>
         </is>
       </c>
-      <c r="B559" s="11" t="inlineStr">
+      <c r="B559" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_14</t>
         </is>
       </c>
-      <c r="C559" s="11" t="n"/>
-      <c r="D559" s="11" t="n"/>
-      <c r="E559" s="11" t="n"/>
-      <c r="F559" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G559" s="11" t="n"/>
+      <c r="C559" s="16" t="n"/>
+      <c r="D559" s="16" t="n"/>
+      <c r="E559" s="16" t="n"/>
+      <c r="F559" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G559" s="16" t="n"/>
     </row>
     <row r="560" customFormat="1" s="2">
-      <c r="A560" s="11" t="inlineStr">
+      <c r="A560" s="16" t="inlineStr">
         <is>
           <t>VO_C02_24_World</t>
         </is>
       </c>
-      <c r="B560" s="11" t="inlineStr">
+      <c r="B560" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_15</t>
         </is>
       </c>
-      <c r="C560" s="11" t="n"/>
-      <c r="D560" s="11" t="n"/>
-      <c r="E560" s="11" t="n"/>
-      <c r="F560" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G560" s="11" t="n"/>
+      <c r="C560" s="16" t="n"/>
+      <c r="D560" s="16" t="n"/>
+      <c r="E560" s="16" t="n"/>
+      <c r="F560" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G560" s="16" t="n"/>
     </row>
     <row r="561" customFormat="1" s="2">
-      <c r="A561" s="11" t="inlineStr">
+      <c r="A561" s="16" t="inlineStr">
         <is>
           <t>VO_C02_25_World</t>
         </is>
       </c>
-      <c r="B561" s="11" t="inlineStr">
+      <c r="B561" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_16</t>
         </is>
       </c>
-      <c r="C561" s="11" t="n"/>
-      <c r="D561" s="11" t="n"/>
-      <c r="E561" s="11" t="n"/>
-      <c r="F561" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G561" s="11" t="n"/>
+      <c r="C561" s="16" t="n"/>
+      <c r="D561" s="16" t="n"/>
+      <c r="E561" s="16" t="n"/>
+      <c r="F561" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G561" s="16" t="n"/>
     </row>
     <row r="562" customFormat="1" s="2">
-      <c r="A562" s="11" t="inlineStr">
+      <c r="A562" s="16" t="inlineStr">
         <is>
           <t>VO_C02_26_World</t>
         </is>
       </c>
-      <c r="B562" s="11" t="inlineStr">
+      <c r="B562" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_17</t>
         </is>
       </c>
-      <c r="C562" s="11" t="n"/>
-      <c r="D562" s="11" t="n"/>
-      <c r="E562" s="11" t="n"/>
-      <c r="F562" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G562" s="11" t="n"/>
+      <c r="C562" s="16" t="n"/>
+      <c r="D562" s="16" t="n"/>
+      <c r="E562" s="16" t="n"/>
+      <c r="F562" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G562" s="16" t="n"/>
     </row>
     <row r="563" customFormat="1" s="2">
-      <c r="A563" s="11" t="inlineStr">
+      <c r="A563" s="16" t="inlineStr">
         <is>
           <t>VO_C02_27_World</t>
         </is>
       </c>
-      <c r="B563" s="11" t="inlineStr">
+      <c r="B563" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_18</t>
         </is>
       </c>
-      <c r="C563" s="11" t="n"/>
-      <c r="D563" s="11" t="n"/>
-      <c r="E563" s="11" t="n"/>
-      <c r="F563" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G563" s="11" t="n"/>
+      <c r="C563" s="16" t="n"/>
+      <c r="D563" s="16" t="n"/>
+      <c r="E563" s="16" t="n"/>
+      <c r="F563" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G563" s="16" t="n"/>
     </row>
     <row r="564" customFormat="1" s="2">
-      <c r="A564" s="11" t="inlineStr">
+      <c r="A564" s="16" t="inlineStr">
         <is>
           <t>VO_C02_28_World</t>
         </is>
       </c>
-      <c r="B564" s="11" t="inlineStr">
+      <c r="B564" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_19</t>
         </is>
       </c>
-      <c r="C564" s="11" t="n"/>
-      <c r="D564" s="11" t="n"/>
-      <c r="E564" s="11" t="n"/>
-      <c r="F564" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G564" s="11" t="n"/>
+      <c r="C564" s="16" t="n"/>
+      <c r="D564" s="16" t="n"/>
+      <c r="E564" s="16" t="n"/>
+      <c r="F564" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G564" s="16" t="n"/>
     </row>
     <row r="565" customFormat="1" s="2">
-      <c r="A565" s="11" t="inlineStr">
+      <c r="A565" s="16" t="inlineStr">
         <is>
           <t>VO_C02_29_World</t>
         </is>
       </c>
-      <c r="B565" s="11" t="inlineStr">
+      <c r="B565" s="16" t="inlineStr">
         <is>
           <t>VO_Game_World_C02_20</t>
         </is>
       </c>
-      <c r="C565" s="11" t="n"/>
-      <c r="D565" s="11" t="n"/>
-      <c r="E565" s="11" t="n"/>
-      <c r="F565" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G565" s="11" t="n"/>
+      <c r="C565" s="16" t="n"/>
+      <c r="D565" s="16" t="n"/>
+      <c r="E565" s="16" t="n"/>
+      <c r="F565" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G565" s="16" t="n"/>
     </row>
     <row r="566" customFormat="1" s="2">
-      <c r="A566" s="11" t="inlineStr">
+      <c r="A566" s="16" t="inlineStr">
         <is>
           <t>VO_C02_01_Menu</t>
         </is>
       </c>
-      <c r="B566" s="11" t="inlineStr">
+      <c r="B566" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Menu_C02_01</t>
         </is>
       </c>
-      <c r="C566" s="11" t="n"/>
-      <c r="D566" s="11" t="n"/>
-      <c r="E566" s="11" t="n"/>
-      <c r="F566" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G566" s="11" t="n"/>
+      <c r="C566" s="16" t="n"/>
+      <c r="D566" s="16" t="n"/>
+      <c r="E566" s="16" t="n"/>
+      <c r="F566" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G566" s="16" t="n"/>
     </row>
     <row r="567" customFormat="1" s="2">
-      <c r="A567" s="11" t="inlineStr">
+      <c r="A567" s="16" t="inlineStr">
         <is>
           <t>VO_C02_02_Menu</t>
         </is>
       </c>
-      <c r="B567" s="11" t="inlineStr">
+      <c r="B567" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Menu_C02_02</t>
         </is>
       </c>
-      <c r="C567" s="11" t="n"/>
-      <c r="D567" s="11" t="n"/>
-      <c r="E567" s="11" t="n"/>
-      <c r="F567" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G567" s="11" t="n"/>
+      <c r="C567" s="16" t="n"/>
+      <c r="D567" s="16" t="n"/>
+      <c r="E567" s="16" t="n"/>
+      <c r="F567" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G567" s="16" t="n"/>
     </row>
     <row r="568" customFormat="1" s="2">
       <c r="A568" s="2" t="inlineStr">
@@ -11827,118 +11833,118 @@
       <c r="G568" s="3" t="n"/>
     </row>
     <row r="569" customFormat="1" s="2">
-      <c r="A569" s="11" t="inlineStr">
+      <c r="A569" s="16" t="inlineStr">
         <is>
           <t>VO_C02_04_Menu</t>
         </is>
       </c>
-      <c r="B569" s="11" t="inlineStr">
+      <c r="B569" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Menu_C02_04</t>
         </is>
       </c>
-      <c r="C569" s="11" t="n"/>
-      <c r="D569" s="11" t="n"/>
-      <c r="E569" s="11" t="n"/>
-      <c r="F569" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G569" s="11" t="n"/>
+      <c r="C569" s="16" t="n"/>
+      <c r="D569" s="16" t="n"/>
+      <c r="E569" s="16" t="n"/>
+      <c r="F569" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G569" s="16" t="n"/>
     </row>
     <row r="570" customFormat="1" s="2">
-      <c r="A570" s="11" t="inlineStr">
+      <c r="A570" s="16" t="inlineStr">
         <is>
           <t>VO_C02_05_Menu</t>
         </is>
       </c>
-      <c r="B570" s="11" t="inlineStr">
+      <c r="B570" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Menu_C02_05</t>
         </is>
       </c>
-      <c r="C570" s="11" t="n"/>
-      <c r="D570" s="11" t="n"/>
-      <c r="E570" s="11" t="n"/>
-      <c r="F570" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G570" s="11" t="n"/>
+      <c r="C570" s="16" t="n"/>
+      <c r="D570" s="16" t="n"/>
+      <c r="E570" s="16" t="n"/>
+      <c r="F570" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G570" s="16" t="n"/>
     </row>
     <row r="571" customFormat="1" s="2">
-      <c r="A571" s="11" t="inlineStr">
+      <c r="A571" s="16" t="inlineStr">
         <is>
           <t>VO_C02_06_Menu</t>
         </is>
       </c>
-      <c r="B571" s="11" t="inlineStr">
+      <c r="B571" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Menu_C02_06</t>
         </is>
       </c>
-      <c r="C571" s="11" t="n"/>
-      <c r="D571" s="11" t="n"/>
-      <c r="E571" s="11" t="n"/>
-      <c r="F571" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G571" s="11" t="n"/>
+      <c r="C571" s="16" t="n"/>
+      <c r="D571" s="16" t="n"/>
+      <c r="E571" s="16" t="n"/>
+      <c r="F571" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G571" s="16" t="n"/>
     </row>
     <row r="572" customFormat="1" s="2">
-      <c r="A572" s="11" t="inlineStr">
+      <c r="A572" s="16" t="inlineStr">
         <is>
           <t>VO_C02_07_Menu</t>
         </is>
       </c>
-      <c r="B572" s="11" t="inlineStr">
+      <c r="B572" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Menu_C02_07</t>
         </is>
       </c>
-      <c r="C572" s="11" t="n"/>
-      <c r="D572" s="11" t="n"/>
-      <c r="E572" s="11" t="n"/>
-      <c r="F572" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G572" s="11" t="n"/>
+      <c r="C572" s="16" t="n"/>
+      <c r="D572" s="16" t="n"/>
+      <c r="E572" s="16" t="n"/>
+      <c r="F572" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G572" s="16" t="n"/>
     </row>
     <row r="573" customFormat="1" s="2">
-      <c r="A573" s="11" t="inlineStr">
+      <c r="A573" s="16" t="inlineStr">
         <is>
           <t>VO_C02_08_Menu</t>
         </is>
       </c>
-      <c r="B573" s="11" t="inlineStr">
+      <c r="B573" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Menu_C02_08</t>
         </is>
       </c>
-      <c r="C573" s="11" t="n"/>
-      <c r="D573" s="11" t="n"/>
-      <c r="E573" s="11" t="n"/>
-      <c r="F573" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G573" s="11" t="n"/>
+      <c r="C573" s="16" t="n"/>
+      <c r="D573" s="16" t="n"/>
+      <c r="E573" s="16" t="n"/>
+      <c r="F573" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G573" s="16" t="n"/>
     </row>
     <row r="574" customFormat="1" s="2">
-      <c r="A574" s="11" t="inlineStr">
+      <c r="A574" s="16" t="inlineStr">
         <is>
           <t>VO_C02_09_Menu</t>
         </is>
       </c>
-      <c r="B574" s="11" t="inlineStr">
+      <c r="B574" s="16" t="inlineStr">
         <is>
           <t>VO_Game_Menu_C02_09</t>
         </is>
       </c>
-      <c r="C574" s="11" t="n"/>
-      <c r="D574" s="11" t="n"/>
-      <c r="E574" s="11" t="n"/>
-      <c r="F574" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G574" s="11" t="n"/>
+      <c r="C574" s="16" t="n"/>
+      <c r="D574" s="16" t="n"/>
+      <c r="E574" s="16" t="n"/>
+      <c r="F574" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G574" s="16" t="n"/>
     </row>
     <row r="575" customFormat="1" s="2">
       <c r="A575" s="15" t="n"/>
@@ -13906,6 +13912,1106 @@
         </is>
       </c>
     </row>
+    <row r="701">
+      <c r="A701" s="17" t="inlineStr">
+        <is>
+          <t>VO_C01_33_Battle</t>
+        </is>
+      </c>
+      <c r="B701" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_01_R02</t>
+        </is>
+      </c>
+      <c r="C701" s="17" t="n"/>
+      <c r="D701" s="17" t="n"/>
+      <c r="E701" s="17" t="n"/>
+      <c r="F701" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G701" s="17" t="n"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="17" t="inlineStr">
+        <is>
+          <t>VO_C01_44_Battle</t>
+        </is>
+      </c>
+      <c r="B702" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_03_R02</t>
+        </is>
+      </c>
+      <c r="C702" s="17" t="n"/>
+      <c r="D702" s="17" t="n"/>
+      <c r="E702" s="17" t="n"/>
+      <c r="F702" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G702" s="17" t="n"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Atk_Lit_R02</t>
+        </is>
+      </c>
+      <c r="B703" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_07_R02</t>
+        </is>
+      </c>
+      <c r="C703" s="17" t="n"/>
+      <c r="D703" s="17" t="n"/>
+      <c r="E703" s="17" t="n"/>
+      <c r="F703" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G703" s="17" t="n"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Atk_Lit_R03</t>
+        </is>
+      </c>
+      <c r="B704" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_07_R03</t>
+        </is>
+      </c>
+      <c r="C704" s="17" t="n"/>
+      <c r="D704" s="17" t="n"/>
+      <c r="E704" s="17" t="n"/>
+      <c r="F704" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G704" s="17" t="n"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Atk_Lit_R02</t>
+        </is>
+      </c>
+      <c r="B705" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_08_R02</t>
+        </is>
+      </c>
+      <c r="C705" s="17" t="n"/>
+      <c r="D705" s="17" t="n"/>
+      <c r="E705" s="17" t="n"/>
+      <c r="F705" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G705" s="17" t="n"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Atk_Lit_R03</t>
+        </is>
+      </c>
+      <c r="B706" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_08_R03</t>
+        </is>
+      </c>
+      <c r="C706" s="17" t="n"/>
+      <c r="D706" s="17" t="n"/>
+      <c r="E706" s="17" t="n"/>
+      <c r="F706" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G706" s="17" t="n"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Atk_Mid_R02</t>
+        </is>
+      </c>
+      <c r="B707" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_09_R02</t>
+        </is>
+      </c>
+      <c r="C707" s="17" t="n"/>
+      <c r="D707" s="17" t="n"/>
+      <c r="E707" s="17" t="n"/>
+      <c r="F707" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G707" s="17" t="n"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Atk_Mid_R03</t>
+        </is>
+      </c>
+      <c r="B708" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_09_R03</t>
+        </is>
+      </c>
+      <c r="C708" s="17" t="n"/>
+      <c r="D708" s="17" t="n"/>
+      <c r="E708" s="17" t="n"/>
+      <c r="F708" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G708" s="17" t="n"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Atk_Mid_R02</t>
+        </is>
+      </c>
+      <c r="B709" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_10_R02</t>
+        </is>
+      </c>
+      <c r="C709" s="17" t="n"/>
+      <c r="D709" s="17" t="n"/>
+      <c r="E709" s="17" t="n"/>
+      <c r="F709" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G709" s="17" t="n"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Atk_Mid_R03</t>
+        </is>
+      </c>
+      <c r="B710" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_10_R03</t>
+        </is>
+      </c>
+      <c r="C710" s="17" t="n"/>
+      <c r="D710" s="17" t="n"/>
+      <c r="E710" s="17" t="n"/>
+      <c r="F710" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G710" s="17" t="n"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Atk_Hvy_R02</t>
+        </is>
+      </c>
+      <c r="B711" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_11_R02</t>
+        </is>
+      </c>
+      <c r="C711" s="17" t="n"/>
+      <c r="D711" s="17" t="n"/>
+      <c r="E711" s="17" t="n"/>
+      <c r="F711" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G711" s="17" t="n"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Atk_Hvy_R03</t>
+        </is>
+      </c>
+      <c r="B712" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_11_R03</t>
+        </is>
+      </c>
+      <c r="C712" s="17" t="n"/>
+      <c r="D712" s="17" t="n"/>
+      <c r="E712" s="17" t="n"/>
+      <c r="F712" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G712" s="17" t="n"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Focus_Start_R02</t>
+        </is>
+      </c>
+      <c r="B713" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_12_R02</t>
+        </is>
+      </c>
+      <c r="C713" s="17" t="n"/>
+      <c r="D713" s="17" t="n"/>
+      <c r="E713" s="17" t="n"/>
+      <c r="F713" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G713" s="17" t="n"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Focus_Start_R03</t>
+        </is>
+      </c>
+      <c r="B714" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_12_R03</t>
+        </is>
+      </c>
+      <c r="C714" s="17" t="n"/>
+      <c r="D714" s="17" t="n"/>
+      <c r="E714" s="17" t="n"/>
+      <c r="F714" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G714" s="17" t="n"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Atk_Lit_R02</t>
+        </is>
+      </c>
+      <c r="B715" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_16_R02</t>
+        </is>
+      </c>
+      <c r="C715" s="17" t="n"/>
+      <c r="D715" s="17" t="n"/>
+      <c r="E715" s="17" t="n"/>
+      <c r="F715" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G715" s="17" t="n"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Atk_Lit_R03</t>
+        </is>
+      </c>
+      <c r="B716" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_16_R03</t>
+        </is>
+      </c>
+      <c r="C716" s="17" t="n"/>
+      <c r="D716" s="17" t="n"/>
+      <c r="E716" s="17" t="n"/>
+      <c r="F716" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G716" s="17" t="n"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="17" t="inlineStr">
+        <is>
+          <t>VO_C01_39_Battle</t>
+        </is>
+      </c>
+      <c r="B717" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_20_R02</t>
+        </is>
+      </c>
+      <c r="C717" s="17" t="n"/>
+      <c r="D717" s="17" t="n"/>
+      <c r="E717" s="17" t="n"/>
+      <c r="F717" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G717" s="17" t="n"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="17" t="inlineStr">
+        <is>
+          <t>VO_C01_35_Battle</t>
+        </is>
+      </c>
+      <c r="B718" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_22_R02</t>
+        </is>
+      </c>
+      <c r="C718" s="17" t="n"/>
+      <c r="D718" s="17" t="n"/>
+      <c r="E718" s="17" t="n"/>
+      <c r="F718" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G718" s="17" t="n"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Dodge_R03</t>
+        </is>
+      </c>
+      <c r="B719" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_24_R02</t>
+        </is>
+      </c>
+      <c r="C719" s="17" t="n"/>
+      <c r="D719" s="17" t="n"/>
+      <c r="E719" s="17" t="n"/>
+      <c r="F719" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G719" s="17" t="n"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Hit_Lit_R02</t>
+        </is>
+      </c>
+      <c r="B720" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_26_R02</t>
+        </is>
+      </c>
+      <c r="C720" s="17" t="n"/>
+      <c r="D720" s="17" t="n"/>
+      <c r="E720" s="17" t="n"/>
+      <c r="F720" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G720" s="17" t="n"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Hit_Lit_R03</t>
+        </is>
+      </c>
+      <c r="B721" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_26_R03</t>
+        </is>
+      </c>
+      <c r="C721" s="17" t="n"/>
+      <c r="D721" s="17" t="n"/>
+      <c r="E721" s="17" t="n"/>
+      <c r="F721" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G721" s="17" t="n"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Hit_Hvy_R02</t>
+        </is>
+      </c>
+      <c r="B722" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_27_R02</t>
+        </is>
+      </c>
+      <c r="C722" s="17" t="n"/>
+      <c r="D722" s="17" t="n"/>
+      <c r="E722" s="17" t="n"/>
+      <c r="F722" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G722" s="17" t="n"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C01_Hit_Hvy_R03</t>
+        </is>
+      </c>
+      <c r="B723" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C01_27_R03</t>
+        </is>
+      </c>
+      <c r="C723" s="17" t="n"/>
+      <c r="D723" s="17" t="n"/>
+      <c r="E723" s="17" t="n"/>
+      <c r="F723" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G723" s="17" t="n"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="17" t="inlineStr">
+        <is>
+          <t>VO_C01_24_World_R02</t>
+        </is>
+      </c>
+      <c r="B724" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_World_C01_15_R02</t>
+        </is>
+      </c>
+      <c r="C724" s="17" t="n"/>
+      <c r="D724" s="17" t="n"/>
+      <c r="E724" s="17" t="n"/>
+      <c r="F724" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G724" s="17" t="n"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="0" t="inlineStr">
+        <is>
+          <t>VO_C01_24_World_R03</t>
+        </is>
+      </c>
+      <c r="B725" s="0" t="inlineStr">
+        <is>
+          <t>VO_Game_World_C01_15_R03</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="17" t="inlineStr">
+        <is>
+          <t>VO_C01_28_World</t>
+        </is>
+      </c>
+      <c r="B726" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_World_C01_18_R02</t>
+        </is>
+      </c>
+      <c r="C726" s="17" t="n"/>
+      <c r="D726" s="17" t="n"/>
+      <c r="E726" s="17" t="n"/>
+      <c r="F726" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G726" s="17" t="n"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="17" t="inlineStr">
+        <is>
+          <t>VO_C01_31_World</t>
+        </is>
+      </c>
+      <c r="B727" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_World_C01_21_R02</t>
+        </is>
+      </c>
+      <c r="C727" s="17" t="n"/>
+      <c r="D727" s="17" t="n"/>
+      <c r="E727" s="17" t="n"/>
+      <c r="F727" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G727" s="17" t="n"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="17" t="inlineStr">
+        <is>
+          <t>VO_C01_05_Menu</t>
+        </is>
+      </c>
+      <c r="B728" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Menu_C01_04_R02</t>
+        </is>
+      </c>
+      <c r="C728" s="17" t="n"/>
+      <c r="D728" s="17" t="n"/>
+      <c r="E728" s="17" t="n"/>
+      <c r="F728" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G728" s="17" t="n"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="17" t="inlineStr">
+        <is>
+          <t>VO_C02_31_Battle</t>
+        </is>
+      </c>
+      <c r="B729" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_01_R02</t>
+        </is>
+      </c>
+      <c r="C729" s="17" t="n"/>
+      <c r="D729" s="17" t="n"/>
+      <c r="E729" s="17" t="n"/>
+      <c r="F729" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G729" s="17" t="n"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="17" t="inlineStr">
+        <is>
+          <t>VO_C02_42_Battle</t>
+        </is>
+      </c>
+      <c r="B730" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_03_R02</t>
+        </is>
+      </c>
+      <c r="C730" s="17" t="n"/>
+      <c r="D730" s="17" t="n"/>
+      <c r="E730" s="17" t="n"/>
+      <c r="F730" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G730" s="17" t="n"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Atk_Lit_R02</t>
+        </is>
+      </c>
+      <c r="B731" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_07_R02</t>
+        </is>
+      </c>
+      <c r="C731" s="17" t="n"/>
+      <c r="D731" s="17" t="n"/>
+      <c r="E731" s="17" t="n"/>
+      <c r="F731" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G731" s="17" t="n"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Atk_Lit_R03</t>
+        </is>
+      </c>
+      <c r="B732" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_07_R03</t>
+        </is>
+      </c>
+      <c r="C732" s="17" t="n"/>
+      <c r="D732" s="17" t="n"/>
+      <c r="E732" s="17" t="n"/>
+      <c r="F732" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G732" s="17" t="n"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Atk_Lit_R02</t>
+        </is>
+      </c>
+      <c r="B733" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_08_R02</t>
+        </is>
+      </c>
+      <c r="C733" s="17" t="n"/>
+      <c r="D733" s="17" t="n"/>
+      <c r="E733" s="17" t="n"/>
+      <c r="F733" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G733" s="17" t="n"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Atk_Lit_R03</t>
+        </is>
+      </c>
+      <c r="B734" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_08_R03</t>
+        </is>
+      </c>
+      <c r="C734" s="17" t="n"/>
+      <c r="D734" s="17" t="n"/>
+      <c r="E734" s="17" t="n"/>
+      <c r="F734" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G734" s="17" t="n"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Atk_Mid_R02</t>
+        </is>
+      </c>
+      <c r="B735" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_09_R02</t>
+        </is>
+      </c>
+      <c r="C735" s="17" t="n"/>
+      <c r="D735" s="17" t="n"/>
+      <c r="E735" s="17" t="n"/>
+      <c r="F735" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G735" s="17" t="n"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Atk_Mid_R03</t>
+        </is>
+      </c>
+      <c r="B736" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_09_R03</t>
+        </is>
+      </c>
+      <c r="C736" s="17" t="n"/>
+      <c r="D736" s="17" t="n"/>
+      <c r="E736" s="17" t="n"/>
+      <c r="F736" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G736" s="17" t="n"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Atk_Mid_R02</t>
+        </is>
+      </c>
+      <c r="B737" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_10_R02</t>
+        </is>
+      </c>
+      <c r="C737" s="17" t="n"/>
+      <c r="D737" s="17" t="n"/>
+      <c r="E737" s="17" t="n"/>
+      <c r="F737" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G737" s="17" t="n"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Atk_Mid_R03</t>
+        </is>
+      </c>
+      <c r="B738" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_10_R03</t>
+        </is>
+      </c>
+      <c r="C738" s="17" t="n"/>
+      <c r="D738" s="17" t="n"/>
+      <c r="E738" s="17" t="n"/>
+      <c r="F738" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G738" s="17" t="n"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Atk_Hvy_R02</t>
+        </is>
+      </c>
+      <c r="B739" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_11_R02</t>
+        </is>
+      </c>
+      <c r="C739" s="17" t="n"/>
+      <c r="D739" s="17" t="n"/>
+      <c r="E739" s="17" t="n"/>
+      <c r="F739" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G739" s="17" t="n"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Atk_Hvy_R03</t>
+        </is>
+      </c>
+      <c r="B740" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_11_R03</t>
+        </is>
+      </c>
+      <c r="C740" s="17" t="n"/>
+      <c r="D740" s="17" t="n"/>
+      <c r="E740" s="17" t="n"/>
+      <c r="F740" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G740" s="17" t="n"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Focus_Start_R02</t>
+        </is>
+      </c>
+      <c r="B741" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_12_R02</t>
+        </is>
+      </c>
+      <c r="C741" s="17" t="n"/>
+      <c r="D741" s="17" t="n"/>
+      <c r="E741" s="17" t="n"/>
+      <c r="F741" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G741" s="17" t="n"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Focus_Start_R03</t>
+        </is>
+      </c>
+      <c r="B742" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_12_R03</t>
+        </is>
+      </c>
+      <c r="C742" s="17" t="n"/>
+      <c r="D742" s="17" t="n"/>
+      <c r="E742" s="17" t="n"/>
+      <c r="F742" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G742" s="17" t="n"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Atk_Mid_R02</t>
+        </is>
+      </c>
+      <c r="B743" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_16_R02</t>
+        </is>
+      </c>
+      <c r="C743" s="17" t="n"/>
+      <c r="D743" s="17" t="n"/>
+      <c r="E743" s="17" t="n"/>
+      <c r="F743" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G743" s="17" t="n"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Atk_Mid_R03</t>
+        </is>
+      </c>
+      <c r="B744" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_16_R03</t>
+        </is>
+      </c>
+      <c r="C744" s="17" t="n"/>
+      <c r="D744" s="17" t="n"/>
+      <c r="E744" s="17" t="n"/>
+      <c r="F744" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G744" s="17" t="n"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Atk_Lit_R02</t>
+        </is>
+      </c>
+      <c r="B745" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_17_R02</t>
+        </is>
+      </c>
+      <c r="C745" s="17" t="n"/>
+      <c r="D745" s="17" t="n"/>
+      <c r="E745" s="17" t="n"/>
+      <c r="F745" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G745" s="17" t="n"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Atk_Lit_R03</t>
+        </is>
+      </c>
+      <c r="B746" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_17_R03</t>
+        </is>
+      </c>
+      <c r="C746" s="17" t="n"/>
+      <c r="D746" s="17" t="n"/>
+      <c r="E746" s="17" t="n"/>
+      <c r="F746" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G746" s="17" t="n"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Atk_Lit_R02</t>
+        </is>
+      </c>
+      <c r="B747" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_18_R02</t>
+        </is>
+      </c>
+      <c r="C747" s="17" t="n"/>
+      <c r="D747" s="17" t="n"/>
+      <c r="E747" s="17" t="n"/>
+      <c r="F747" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G747" s="17" t="n"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Atk_Lit_R03</t>
+        </is>
+      </c>
+      <c r="B748" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_18_R03</t>
+        </is>
+      </c>
+      <c r="C748" s="17" t="n"/>
+      <c r="D748" s="17" t="n"/>
+      <c r="E748" s="17" t="n"/>
+      <c r="F748" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G748" s="17" t="n"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="17" t="inlineStr">
+        <is>
+          <t>VO_C02_37_Battle</t>
+        </is>
+      </c>
+      <c r="B749" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_22_R02</t>
+        </is>
+      </c>
+      <c r="C749" s="17" t="n"/>
+      <c r="D749" s="17" t="n"/>
+      <c r="E749" s="17" t="n"/>
+      <c r="F749" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G749" s="17" t="n"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="17" t="inlineStr">
+        <is>
+          <t>VO_C02_33_Battle</t>
+        </is>
+      </c>
+      <c r="B750" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_24_R02</t>
+        </is>
+      </c>
+      <c r="C750" s="17" t="n"/>
+      <c r="D750" s="17" t="n"/>
+      <c r="E750" s="17" t="n"/>
+      <c r="F750" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G750" s="17" t="n"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Dodge_R03</t>
+        </is>
+      </c>
+      <c r="B751" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_26_R02</t>
+        </is>
+      </c>
+      <c r="C751" s="17" t="n"/>
+      <c r="D751" s="17" t="n"/>
+      <c r="E751" s="17" t="n"/>
+      <c r="F751" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G751" s="17" t="n"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Hit_Lit_R02</t>
+        </is>
+      </c>
+      <c r="B752" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_28_R02</t>
+        </is>
+      </c>
+      <c r="C752" s="17" t="n"/>
+      <c r="D752" s="17" t="n"/>
+      <c r="E752" s="17" t="n"/>
+      <c r="F752" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G752" s="17" t="n"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Hit_Lit_R03</t>
+        </is>
+      </c>
+      <c r="B753" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_28_R03</t>
+        </is>
+      </c>
+      <c r="C753" s="17" t="n"/>
+      <c r="D753" s="17" t="n"/>
+      <c r="E753" s="17" t="n"/>
+      <c r="F753" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G753" s="17" t="n"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Hit_Hvy_R02</t>
+        </is>
+      </c>
+      <c r="B754" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_29_R02</t>
+        </is>
+      </c>
+      <c r="C754" s="17" t="n"/>
+      <c r="D754" s="17" t="n"/>
+      <c r="E754" s="17" t="n"/>
+      <c r="F754" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G754" s="17" t="n"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="17" t="inlineStr">
+        <is>
+          <t>Char_Shout_C02_Hit_Hvy_R03</t>
+        </is>
+      </c>
+      <c r="B755" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Battle_C02_29_R03</t>
+        </is>
+      </c>
+      <c r="C755" s="17" t="n"/>
+      <c r="D755" s="17" t="n"/>
+      <c r="E755" s="17" t="n"/>
+      <c r="F755" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G755" s="17" t="n"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="0" t="inlineStr">
+        <is>
+          <t>VO_C02_22_World_R02</t>
+        </is>
+      </c>
+      <c r="B756" s="0" t="inlineStr">
+        <is>
+          <t>VO_Game_World_C02_13_R02</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="0" t="inlineStr">
+        <is>
+          <t>VO_C02_22_World_R03</t>
+        </is>
+      </c>
+      <c r="B757" s="0" t="inlineStr">
+        <is>
+          <t>VO_Game_World_C02_13_R03</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="17" t="inlineStr">
+        <is>
+          <t>VO_C02_29_World</t>
+        </is>
+      </c>
+      <c r="B758" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_World_C02_19_R02</t>
+        </is>
+      </c>
+      <c r="C758" s="17" t="n"/>
+      <c r="D758" s="17" t="n"/>
+      <c r="E758" s="17" t="n"/>
+      <c r="F758" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G758" s="17" t="n"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="17" t="inlineStr">
+        <is>
+          <t>VO_C02_05_Menu</t>
+        </is>
+      </c>
+      <c r="B759" s="17" t="inlineStr">
+        <is>
+          <t>VO_Game_Menu_C02_04_R02</t>
+        </is>
+      </c>
+      <c r="C759" s="17" t="n"/>
+      <c r="D759" s="17" t="n"/>
+      <c r="E759" s="17" t="n"/>
+      <c r="F759" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G759" s="17" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/module/waapi/waapi_音频资源导入自动化/资源导入记录表.xlsx
+++ b/module/waapi/waapi_音频资源导入自动化/资源导入记录表.xlsx
@@ -705,7 +705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,6 +736,20 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1327,7 +1341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G759"/>
+  <dimension ref="A1:G760"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A592" activePane="bottomLeft" state="frozen"/>
@@ -2003,20 +2017,26 @@
       <c r="G34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="A35" s="18" t="inlineStr">
         <is>
           <t>Skill_Munin_Dodge_Step</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" s="18" t="inlineStr">
         <is>
           <t>Char_Skill_C01_Dodge_Step</t>
         </is>
       </c>
-      <c r="E35" s="3" t="inlineStr">
+      <c r="C35" s="19" t="n"/>
+      <c r="D35" s="19" t="n"/>
+      <c r="E35" s="15" t="inlineStr">
         <is>
           <t>Char_Skill_C01_Dodge</t>
         </is>
+      </c>
+      <c r="F35" s="19" t="n"/>
+      <c r="G35" s="19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2202,19 +2222,25 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="A46" s="20" t="inlineStr">
         <is>
           <t>Skill_Gratia_ToCombat1</t>
         </is>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" s="20" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Battle_Enter1</t>
         </is>
       </c>
-      <c r="D46" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="C46" s="17" t="n"/>
+      <c r="D46" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="17" t="n"/>
+      <c r="F46" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="17" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -2232,131 +2258,143 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="A48" s="20" t="inlineStr">
         <is>
           <t>Skill_Gratia_ExitCombat</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" s="20" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Battle_Exit</t>
         </is>
       </c>
-      <c r="D48" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="C48" s="17" t="n"/>
+      <c r="D48" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="17" t="n"/>
+      <c r="F48" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="17" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="inlineStr">
+      <c r="A49" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_Attack1</t>
         </is>
       </c>
-      <c r="B49" s="11" t="inlineStr">
+      <c r="B49" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Atk1</t>
         </is>
       </c>
-      <c r="C49" s="11" t="n"/>
-      <c r="D49" s="11" t="n"/>
-      <c r="E49" s="11" t="n"/>
-      <c r="F49" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="11" t="n"/>
+      <c r="C49" s="16" t="n"/>
+      <c r="D49" s="16" t="n"/>
+      <c r="E49" s="16" t="n"/>
+      <c r="F49" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="16" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="inlineStr">
+      <c r="A50" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_Attack2</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr">
+      <c r="B50" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Atk2</t>
         </is>
       </c>
-      <c r="C50" s="11" t="n"/>
-      <c r="D50" s="11" t="n"/>
-      <c r="E50" s="11" t="n"/>
-      <c r="F50" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="11" t="n"/>
+      <c r="C50" s="16" t="n"/>
+      <c r="D50" s="16" t="n"/>
+      <c r="E50" s="16" t="n"/>
+      <c r="F50" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="16" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
+      <c r="A51" s="20" t="inlineStr">
         <is>
           <t>Skill_Gratia_Attack3</t>
         </is>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" s="20" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Atk3</t>
         </is>
       </c>
-      <c r="E51" s="3" t="inlineStr">
+      <c r="C51" s="17" t="n"/>
+      <c r="D51" s="17" t="n"/>
+      <c r="E51" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Atk4</t>
         </is>
       </c>
+      <c r="F51" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="17" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="inlineStr">
+      <c r="A52" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_Attack4</t>
         </is>
       </c>
-      <c r="B52" s="11" t="inlineStr">
+      <c r="B52" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Atk4</t>
         </is>
       </c>
-      <c r="C52" s="11" t="n"/>
-      <c r="D52" s="11" t="n"/>
-      <c r="E52" s="11" t="n"/>
-      <c r="F52" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="11" t="n"/>
+      <c r="C52" s="16" t="n"/>
+      <c r="D52" s="16" t="n"/>
+      <c r="E52" s="16" t="n"/>
+      <c r="F52" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="16" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="inlineStr">
+      <c r="A53" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_Attack5</t>
         </is>
       </c>
-      <c r="B53" s="11" t="inlineStr">
+      <c r="B53" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Atk5</t>
         </is>
       </c>
-      <c r="C53" s="11" t="n"/>
-      <c r="D53" s="11" t="n"/>
-      <c r="E53" s="11" t="n"/>
-      <c r="F53" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="11" t="n"/>
+      <c r="C53" s="16" t="n"/>
+      <c r="D53" s="16" t="n"/>
+      <c r="E53" s="16" t="n"/>
+      <c r="F53" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="16" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="inlineStr">
+      <c r="A54" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_FocusReady1</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr">
+      <c r="B54" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Focus_Ready1</t>
         </is>
       </c>
-      <c r="C54" s="11" t="n"/>
-      <c r="D54" s="11" t="n"/>
-      <c r="E54" s="11" t="n"/>
-      <c r="F54" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="11" t="n"/>
+      <c r="C54" s="16" t="n"/>
+      <c r="D54" s="16" t="n"/>
+      <c r="E54" s="16" t="n"/>
+      <c r="F54" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="16" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -2478,42 +2516,42 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="inlineStr">
+      <c r="A62" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_FocusAttack1</t>
         </is>
       </c>
-      <c r="B62" s="11" t="inlineStr">
+      <c r="B62" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Focus_Atk1</t>
         </is>
       </c>
-      <c r="C62" s="11" t="n"/>
-      <c r="D62" s="11" t="n"/>
-      <c r="E62" s="11" t="n"/>
-      <c r="F62" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="11" t="n"/>
+      <c r="C62" s="16" t="n"/>
+      <c r="D62" s="16" t="n"/>
+      <c r="E62" s="16" t="n"/>
+      <c r="F62" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="16" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="inlineStr">
+      <c r="A63" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_FocusAttack2</t>
         </is>
       </c>
-      <c r="B63" s="11" t="inlineStr">
+      <c r="B63" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Focus_Atk2</t>
         </is>
       </c>
-      <c r="C63" s="11" t="n"/>
-      <c r="D63" s="11" t="n"/>
-      <c r="E63" s="11" t="n"/>
-      <c r="F63" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="11" t="n"/>
+      <c r="C63" s="16" t="n"/>
+      <c r="D63" s="16" t="n"/>
+      <c r="E63" s="16" t="n"/>
+      <c r="F63" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="16" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
@@ -2573,40 +2611,46 @@
       <c r="G66" s="11" t="n"/>
     </row>
     <row r="67" ht="14.25" customHeight="1" s="14">
-      <c r="A67" s="11" t="inlineStr">
+      <c r="A67" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_Shiled_EnterStrafe</t>
         </is>
       </c>
-      <c r="B67" s="11" t="inlineStr">
+      <c r="B67" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Strafe_Enter</t>
         </is>
       </c>
-      <c r="C67" s="11" t="n"/>
-      <c r="D67" s="11" t="n"/>
-      <c r="E67" s="11" t="n"/>
-      <c r="F67" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="11" t="n"/>
+      <c r="C67" s="16" t="n"/>
+      <c r="D67" s="16" t="n"/>
+      <c r="E67" s="16" t="n"/>
+      <c r="F67" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="16" t="n"/>
     </row>
     <row r="68" ht="14.25" customHeight="1" s="14">
-      <c r="A68" s="2" t="inlineStr">
+      <c r="A68" s="20" t="inlineStr">
         <is>
           <t>Skill_Gratia_Shiled_ExitStrafe</t>
         </is>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" s="20" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Strafe_Exit</t>
         </is>
       </c>
-      <c r="E68" s="8" t="inlineStr">
+      <c r="C68" s="17" t="n"/>
+      <c r="D68" s="17" t="n"/>
+      <c r="E68" s="21" t="inlineStr">
         <is>
           <t>旧资源命名为Skill_Gratia_Shiled_DefenseEnd</t>
         </is>
       </c>
+      <c r="F68" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="17" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
@@ -2628,99 +2672,99 @@
       <c r="G69" s="11" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="11" t="inlineStr">
+      <c r="A70" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_Shiled_DefenseRebound</t>
         </is>
       </c>
-      <c r="B70" s="11" t="inlineStr">
+      <c r="B70" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Strafe_Defense_Atk</t>
         </is>
       </c>
-      <c r="C70" s="11" t="n"/>
-      <c r="D70" s="11" t="n"/>
-      <c r="E70" s="11" t="n"/>
-      <c r="F70" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="11" t="n"/>
+      <c r="C70" s="16" t="n"/>
+      <c r="D70" s="16" t="n"/>
+      <c r="E70" s="16" t="n"/>
+      <c r="F70" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="16" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="11" t="inlineStr">
+      <c r="A71" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_Shiled_DefenseCounterAtk2</t>
         </is>
       </c>
-      <c r="B71" s="11" t="inlineStr">
+      <c r="B71" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Strafe_Counter_Atk1</t>
         </is>
       </c>
-      <c r="C71" s="11" t="n"/>
-      <c r="D71" s="11" t="n"/>
-      <c r="E71" s="11" t="n"/>
-      <c r="F71" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="11" t="n"/>
+      <c r="C71" s="16" t="n"/>
+      <c r="D71" s="16" t="n"/>
+      <c r="E71" s="16" t="n"/>
+      <c r="F71" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="16" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="11" t="inlineStr">
+      <c r="A72" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_Shiled_DefenseCounterAtk3</t>
         </is>
       </c>
-      <c r="B72" s="11" t="inlineStr">
+      <c r="B72" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Strafe_Counter_Atk2</t>
         </is>
       </c>
-      <c r="C72" s="11" t="n"/>
-      <c r="D72" s="11" t="n"/>
-      <c r="E72" s="11" t="n"/>
-      <c r="F72" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" s="11" t="n"/>
+      <c r="C72" s="16" t="n"/>
+      <c r="D72" s="16" t="n"/>
+      <c r="E72" s="16" t="n"/>
+      <c r="F72" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="16" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="11" t="inlineStr">
+      <c r="A73" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_Shiled_DefenseHit</t>
         </is>
       </c>
-      <c r="B73" s="11" t="inlineStr">
+      <c r="B73" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Strafe_Defense_Hit</t>
         </is>
       </c>
-      <c r="C73" s="11" t="n"/>
-      <c r="D73" s="11" t="n"/>
-      <c r="E73" s="11" t="n"/>
-      <c r="F73" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="11" t="n"/>
+      <c r="C73" s="16" t="n"/>
+      <c r="D73" s="16" t="n"/>
+      <c r="E73" s="16" t="n"/>
+      <c r="F73" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="16" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="11" t="inlineStr">
+      <c r="A74" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_Shiled_DefenseBreak</t>
         </is>
       </c>
-      <c r="B74" s="11" t="inlineStr">
+      <c r="B74" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Strafe_Defense_Break</t>
         </is>
       </c>
-      <c r="C74" s="11" t="n"/>
-      <c r="D74" s="11" t="n"/>
-      <c r="E74" s="11" t="n"/>
-      <c r="F74" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="11" t="n"/>
+      <c r="C74" s="16" t="n"/>
+      <c r="D74" s="16" t="n"/>
+      <c r="E74" s="16" t="n"/>
+      <c r="F74" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="16" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
@@ -2879,125 +2923,155 @@
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1" s="14">
-      <c r="A85" s="2" t="inlineStr">
+      <c r="A85" s="20" t="inlineStr">
         <is>
           <t>Skill_Gratia_Execution1</t>
         </is>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B85" s="20" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Execu1</t>
         </is>
       </c>
-      <c r="E85" s="9" t="inlineStr">
+      <c r="C85" s="17" t="n"/>
+      <c r="D85" s="17" t="n"/>
+      <c r="E85" s="22" t="inlineStr">
         <is>
           <t>Skill_Gratia_Eexecution1</t>
         </is>
       </c>
+      <c r="F85" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="17" t="n"/>
     </row>
     <row r="86" ht="14.25" customHeight="1" s="14">
-      <c r="A86" s="2" t="inlineStr">
+      <c r="A86" s="20" t="inlineStr">
         <is>
           <t>Skill_Gratia_Execution2_Start</t>
         </is>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B86" s="20" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Execu2_Start</t>
         </is>
       </c>
-      <c r="E86" s="9" t="inlineStr">
+      <c r="C86" s="17" t="n"/>
+      <c r="D86" s="17" t="n"/>
+      <c r="E86" s="22" t="inlineStr">
         <is>
           <t>Skill_Gratia_Eexecution2_Start</t>
         </is>
       </c>
+      <c r="F86" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="17" t="n"/>
     </row>
     <row r="87" ht="14.25" customHeight="1" s="14">
-      <c r="A87" s="2" t="inlineStr">
+      <c r="A87" s="20" t="inlineStr">
         <is>
           <t>Skill_Gratia_Execution2_Loop</t>
         </is>
       </c>
-      <c r="B87" s="2" t="inlineStr">
+      <c r="B87" s="20" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Execu2_LP</t>
         </is>
       </c>
-      <c r="C87" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="C87" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" s="17" t="n"/>
+      <c r="E87" s="17" t="n"/>
+      <c r="F87" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="17" t="n"/>
     </row>
     <row r="88" ht="14.25" customHeight="1" s="14">
-      <c r="A88" s="2" t="inlineStr">
+      <c r="A88" s="20" t="inlineStr">
         <is>
           <t>Skill_Gratia_Execution2_End</t>
         </is>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" s="20" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Execu2_End</t>
         </is>
       </c>
-      <c r="E88" s="9" t="inlineStr">
+      <c r="C88" s="17" t="n"/>
+      <c r="D88" s="17" t="n"/>
+      <c r="E88" s="22" t="inlineStr">
         <is>
           <t>Skill_Gratia_Eexecution2_End</t>
         </is>
       </c>
+      <c r="F88" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="17" t="n"/>
     </row>
     <row r="89" ht="14.25" customHeight="1" s="14">
-      <c r="A89" s="2" t="inlineStr">
+      <c r="A89" s="20" t="inlineStr">
         <is>
           <t>Skill_Gratia_Execution2_End_SP</t>
         </is>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" s="20" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Execu2_End_Sp</t>
         </is>
       </c>
-      <c r="E89" s="9" t="inlineStr">
+      <c r="C89" s="17" t="n"/>
+      <c r="D89" s="17" t="n"/>
+      <c r="E89" s="22" t="inlineStr">
         <is>
           <t>Skill_Gratia_Eexecution2_End_SP</t>
         </is>
       </c>
+      <c r="F89" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="17" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="11" t="inlineStr">
+      <c r="A90" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_Skill2</t>
         </is>
       </c>
-      <c r="B90" s="11" t="inlineStr">
+      <c r="B90" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Ult</t>
         </is>
       </c>
-      <c r="C90" s="11" t="n"/>
-      <c r="D90" s="11" t="n"/>
-      <c r="E90" s="11" t="n"/>
-      <c r="F90" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" s="11" t="n"/>
+      <c r="C90" s="16" t="n"/>
+      <c r="D90" s="16" t="n"/>
+      <c r="E90" s="16" t="n"/>
+      <c r="F90" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="16" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="11" t="inlineStr">
+      <c r="A91" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_StepCounter</t>
         </is>
       </c>
-      <c r="B91" s="11" t="inlineStr">
+      <c r="B91" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Counter</t>
         </is>
       </c>
-      <c r="C91" s="11" t="n"/>
-      <c r="D91" s="11" t="n"/>
-      <c r="E91" s="11" t="n"/>
-      <c r="F91" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" s="11" t="n"/>
+      <c r="C91" s="16" t="n"/>
+      <c r="D91" s="16" t="n"/>
+      <c r="E91" s="16" t="n"/>
+      <c r="F91" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="16" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
@@ -3038,118 +3112,122 @@
       <c r="G93" s="11" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="11" t="inlineStr">
+      <c r="A94" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_StepSpecialCounter_B</t>
         </is>
       </c>
-      <c r="B94" s="11" t="inlineStr">
+      <c r="B94" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Counter_Sp_Atk</t>
         </is>
       </c>
-      <c r="C94" s="11" t="n"/>
-      <c r="D94" s="11" t="n"/>
-      <c r="E94" s="11" t="n"/>
-      <c r="F94" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" s="11" t="n"/>
+      <c r="C94" s="16" t="n"/>
+      <c r="D94" s="16" t="n"/>
+      <c r="E94" s="16" t="n"/>
+      <c r="F94" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" s="16" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="11" t="inlineStr">
+      <c r="A95" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_RushAttack</t>
         </is>
       </c>
-      <c r="B95" s="11" t="inlineStr">
+      <c r="B95" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Atk_Rush</t>
         </is>
       </c>
-      <c r="C95" s="11" t="n"/>
-      <c r="D95" s="11" t="n"/>
-      <c r="E95" s="11" t="n"/>
-      <c r="F95" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" s="11" t="n"/>
+      <c r="C95" s="16" t="n"/>
+      <c r="D95" s="16" t="n"/>
+      <c r="E95" s="16" t="n"/>
+      <c r="F95" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" s="16" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="6" t="inlineStr">
+      <c r="A96" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_Dodge</t>
         </is>
       </c>
-      <c r="B96" s="6" t="inlineStr">
+      <c r="B96" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Dodge</t>
         </is>
       </c>
-      <c r="C96" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" s="6" t="n"/>
-      <c r="E96" s="6" t="n"/>
-      <c r="F96" s="6" t="n"/>
-      <c r="G96" s="6" t="n"/>
+      <c r="C96" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" s="16" t="n"/>
+      <c r="E96" s="16" t="n"/>
+      <c r="F96" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" s="16" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="6" t="inlineStr">
+      <c r="A97" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_Dodge_Step</t>
         </is>
       </c>
-      <c r="B97" s="6" t="inlineStr">
+      <c r="B97" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Dodge_Step</t>
         </is>
       </c>
-      <c r="C97" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D97" s="6" t="n"/>
-      <c r="E97" s="6" t="n"/>
-      <c r="F97" s="6" t="n"/>
-      <c r="G97" s="6" t="n"/>
+      <c r="C97" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" s="16" t="n"/>
+      <c r="E97" s="16" t="n"/>
+      <c r="F97" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" s="16" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="11" t="inlineStr">
+      <c r="A98" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_HitFlyStart</t>
         </is>
       </c>
-      <c r="B98" s="11" t="inlineStr">
+      <c r="B98" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Hit_Fly_Start</t>
         </is>
       </c>
-      <c r="C98" s="11" t="n"/>
-      <c r="D98" s="11" t="n"/>
-      <c r="E98" s="11" t="n"/>
-      <c r="F98" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" s="11" t="n"/>
+      <c r="C98" s="16" t="n"/>
+      <c r="D98" s="16" t="n"/>
+      <c r="E98" s="16" t="n"/>
+      <c r="F98" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" s="16" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="11" t="inlineStr">
+      <c r="A99" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_HitFlyEnd</t>
         </is>
       </c>
-      <c r="B99" s="11" t="inlineStr">
+      <c r="B99" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Hit_Fly_End</t>
         </is>
       </c>
-      <c r="C99" s="11" t="n"/>
-      <c r="D99" s="11" t="n"/>
-      <c r="E99" s="11" t="n"/>
-      <c r="F99" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" s="11" t="n"/>
+      <c r="C99" s="16" t="n"/>
+      <c r="D99" s="16" t="n"/>
+      <c r="E99" s="16" t="n"/>
+      <c r="F99" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" s="16" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
@@ -3182,38 +3260,44 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="inlineStr">
+      <c r="A102" s="20" t="inlineStr">
         <is>
           <t>Skill_Gratia_Death</t>
         </is>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B102" s="20" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Hit_Death</t>
         </is>
       </c>
-      <c r="C102" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="C102" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" s="17" t="n"/>
+      <c r="E102" s="17" t="n"/>
+      <c r="F102" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" s="17" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" s="11" t="inlineStr">
+      <c r="A103" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_HitDeath</t>
         </is>
       </c>
-      <c r="B103" s="11" t="inlineStr">
+      <c r="B103" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Hit_Death_Grd</t>
         </is>
       </c>
-      <c r="C103" s="11" t="n"/>
-      <c r="D103" s="11" t="n"/>
-      <c r="E103" s="11" t="n"/>
-      <c r="F103" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" s="11" t="n"/>
+      <c r="C103" s="16" t="n"/>
+      <c r="D103" s="16" t="n"/>
+      <c r="E103" s="16" t="n"/>
+      <c r="F103" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" s="16" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
@@ -3250,23 +3334,23 @@
       <c r="G105" s="6" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" s="11" t="inlineStr">
+      <c r="A106" s="16" t="inlineStr">
         <is>
           <t>Skill_Gratia_HeavyHit</t>
         </is>
       </c>
-      <c r="B106" s="11" t="inlineStr">
+      <c r="B106" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Hit_Hvy</t>
         </is>
       </c>
-      <c r="C106" s="11" t="n"/>
-      <c r="D106" s="11" t="n"/>
-      <c r="E106" s="11" t="n"/>
-      <c r="F106" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G106" s="11" t="n"/>
+      <c r="C106" s="16" t="n"/>
+      <c r="D106" s="16" t="n"/>
+      <c r="E106" s="16" t="n"/>
+      <c r="F106" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" s="16" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
@@ -3537,25 +3621,27 @@
       <c r="G120" s="11" t="n"/>
     </row>
     <row r="121">
-      <c r="A121" s="11" t="inlineStr">
+      <c r="A121" s="15" t="inlineStr">
         <is>
           <t>Skill_Alf_ShotGun_ExitStrafe</t>
         </is>
       </c>
-      <c r="B121" s="11" t="inlineStr">
+      <c r="B121" s="15" t="inlineStr">
         <is>
           <t>Char_Skill_C03_Strafe_Exit</t>
         </is>
       </c>
-      <c r="C121" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D121" s="11" t="n"/>
-      <c r="E121" s="11" t="n"/>
-      <c r="F121" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G121" s="11" t="n"/>
+      <c r="C121" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" s="15" t="n"/>
+      <c r="E121" s="15" t="n"/>
+      <c r="F121" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="6" t="inlineStr">
@@ -11947,152 +12033,172 @@
       <c r="G574" s="16" t="n"/>
     </row>
     <row r="575" customFormat="1" s="2">
-      <c r="A575" s="15" t="n"/>
-      <c r="B575" s="15" t="inlineStr">
+      <c r="A575" s="16" t="n"/>
+      <c r="B575" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Atk1_End</t>
         </is>
       </c>
-      <c r="C575" s="15" t="n"/>
-      <c r="D575" s="15" t="n"/>
-      <c r="E575" s="15" t="n"/>
-      <c r="F575" s="15" t="n"/>
-      <c r="G575" s="15" t="n">
+      <c r="C575" s="16" t="n"/>
+      <c r="D575" s="16" t="n"/>
+      <c r="E575" s="16" t="n"/>
+      <c r="F575" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G575" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="576" customFormat="1" s="2">
-      <c r="A576" s="15" t="n"/>
-      <c r="B576" s="15" t="inlineStr">
+      <c r="A576" s="16" t="n"/>
+      <c r="B576" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Atk2_End</t>
         </is>
       </c>
-      <c r="C576" s="15" t="n"/>
-      <c r="D576" s="15" t="n"/>
-      <c r="E576" s="15" t="n"/>
-      <c r="F576" s="15" t="n"/>
-      <c r="G576" s="15" t="n">
+      <c r="C576" s="16" t="n"/>
+      <c r="D576" s="16" t="n"/>
+      <c r="E576" s="16" t="n"/>
+      <c r="F576" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G576" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="577" customFormat="1" s="2">
-      <c r="A577" s="15" t="n"/>
-      <c r="B577" s="15" t="inlineStr">
+      <c r="A577" s="16" t="n"/>
+      <c r="B577" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Atk3_End</t>
         </is>
       </c>
-      <c r="C577" s="15" t="n"/>
-      <c r="D577" s="15" t="n"/>
-      <c r="E577" s="15" t="n"/>
-      <c r="F577" s="15" t="n"/>
-      <c r="G577" s="15" t="n">
+      <c r="C577" s="16" t="n"/>
+      <c r="D577" s="16" t="n"/>
+      <c r="E577" s="16" t="n"/>
+      <c r="F577" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G577" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="578" customFormat="1" s="2">
-      <c r="A578" s="15" t="n"/>
-      <c r="B578" s="15" t="inlineStr">
+      <c r="A578" s="16" t="n"/>
+      <c r="B578" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Atk4_End</t>
         </is>
       </c>
-      <c r="C578" s="15" t="n"/>
-      <c r="D578" s="15" t="n"/>
-      <c r="E578" s="15" t="n"/>
-      <c r="F578" s="15" t="n"/>
-      <c r="G578" s="15" t="n">
+      <c r="C578" s="16" t="n"/>
+      <c r="D578" s="16" t="n"/>
+      <c r="E578" s="16" t="n"/>
+      <c r="F578" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G578" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="579" customFormat="1" s="2">
-      <c r="A579" s="15" t="n"/>
-      <c r="B579" s="15" t="inlineStr">
+      <c r="A579" s="16" t="n"/>
+      <c r="B579" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Atk5_End</t>
         </is>
       </c>
-      <c r="C579" s="15" t="n"/>
-      <c r="D579" s="15" t="n"/>
-      <c r="E579" s="15" t="n"/>
-      <c r="F579" s="15" t="n"/>
-      <c r="G579" s="15" t="n">
+      <c r="C579" s="16" t="n"/>
+      <c r="D579" s="16" t="n"/>
+      <c r="E579" s="16" t="n"/>
+      <c r="F579" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G579" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="580" customFormat="1" s="2">
-      <c r="A580" s="15" t="n"/>
-      <c r="B580" s="15" t="inlineStr">
+      <c r="A580" s="16" t="n"/>
+      <c r="B580" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Focus_Atk2_2nd</t>
         </is>
       </c>
-      <c r="C580" s="15" t="n"/>
-      <c r="D580" s="15" t="n"/>
-      <c r="E580" s="15" t="n"/>
-      <c r="F580" s="15" t="n"/>
-      <c r="G580" s="15" t="n">
+      <c r="C580" s="16" t="n"/>
+      <c r="D580" s="16" t="n"/>
+      <c r="E580" s="16" t="n"/>
+      <c r="F580" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G580" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="581" customFormat="1" s="2">
-      <c r="A581" s="15" t="n"/>
-      <c r="B581" s="15" t="inlineStr">
+      <c r="A581" s="16" t="n"/>
+      <c r="B581" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Focus_Atk3_2nd</t>
         </is>
       </c>
-      <c r="C581" s="15" t="n"/>
-      <c r="D581" s="15" t="n"/>
-      <c r="E581" s="15" t="n"/>
-      <c r="F581" s="15" t="n"/>
-      <c r="G581" s="15" t="n">
+      <c r="C581" s="16" t="n"/>
+      <c r="D581" s="16" t="n"/>
+      <c r="E581" s="16" t="n"/>
+      <c r="F581" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G581" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="582" customFormat="1" s="2">
-      <c r="A582" s="15" t="n"/>
-      <c r="B582" s="15" t="inlineStr">
+      <c r="A582" s="16" t="n"/>
+      <c r="B582" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Focus_Atk_End</t>
         </is>
       </c>
-      <c r="C582" s="15" t="n"/>
-      <c r="D582" s="15" t="n"/>
-      <c r="E582" s="15" t="n"/>
-      <c r="F582" s="15" t="n"/>
-      <c r="G582" s="15" t="n">
+      <c r="C582" s="16" t="n"/>
+      <c r="D582" s="16" t="n"/>
+      <c r="E582" s="16" t="n"/>
+      <c r="F582" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G582" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="583" customFormat="1" s="2">
-      <c r="A583" s="15" t="n"/>
-      <c r="B583" s="15" t="inlineStr">
+      <c r="A583" s="16" t="n"/>
+      <c r="B583" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Ult_End</t>
         </is>
       </c>
-      <c r="C583" s="15" t="n"/>
-      <c r="D583" s="15" t="n"/>
-      <c r="E583" s="15" t="n"/>
-      <c r="F583" s="15" t="n"/>
-      <c r="G583" s="15" t="n">
+      <c r="C583" s="16" t="n"/>
+      <c r="D583" s="16" t="n"/>
+      <c r="E583" s="16" t="n"/>
+      <c r="F583" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G583" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="584" customFormat="1" s="2">
-      <c r="A584" s="15" t="n"/>
-      <c r="B584" s="15" t="inlineStr">
+      <c r="A584" s="16" t="n"/>
+      <c r="B584" s="16" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Ult_Exp</t>
         </is>
       </c>
-      <c r="C584" s="15" t="n"/>
-      <c r="D584" s="15" t="n"/>
-      <c r="E584" s="15" t="n"/>
-      <c r="F584" s="15" t="n"/>
-      <c r="G584" s="15" t="n">
+      <c r="C584" s="16" t="n"/>
+      <c r="D584" s="16" t="n"/>
+      <c r="E584" s="16" t="n"/>
+      <c r="F584" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G584" s="16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12809,40 +12915,61 @@
       <c r="G622" s="13" t="n"/>
     </row>
     <row r="623">
-      <c r="A623" s="0" t="inlineStr">
+      <c r="A623" s="23" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Focus_Atk3_Start</t>
         </is>
       </c>
-      <c r="B623" s="0" t="inlineStr">
+      <c r="B623" s="23" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Focus_Atk3_Start</t>
         </is>
       </c>
+      <c r="C623" s="17" t="n"/>
+      <c r="D623" s="17" t="n"/>
+      <c r="E623" s="17" t="n"/>
+      <c r="F623" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G623" s="17" t="n"/>
     </row>
     <row r="624">
-      <c r="A624" s="0" t="inlineStr">
+      <c r="A624" s="23" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Focus_Atk3_Start_2nd</t>
         </is>
       </c>
-      <c r="B624" s="0" t="inlineStr">
+      <c r="B624" s="23" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Focus_Atk3_Start_2nd</t>
         </is>
       </c>
+      <c r="C624" s="17" t="n"/>
+      <c r="D624" s="17" t="n"/>
+      <c r="E624" s="17" t="n"/>
+      <c r="F624" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G624" s="17" t="n"/>
     </row>
     <row r="625">
-      <c r="A625" s="0" t="inlineStr">
+      <c r="A625" s="23" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Hit_Lit</t>
         </is>
       </c>
-      <c r="B625" s="0" t="inlineStr">
+      <c r="B625" s="23" t="inlineStr">
         <is>
           <t>Char_Skill_C02_Hit_Lit</t>
         </is>
       </c>
+      <c r="C625" s="17" t="n"/>
+      <c r="D625" s="17" t="n"/>
+      <c r="E625" s="17" t="n"/>
+      <c r="F625" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G625" s="17" t="n"/>
     </row>
     <row r="626">
       <c r="A626" s="0" t="inlineStr">
@@ -15012,6 +15139,18 @@
       </c>
       <c r="G759" s="17" t="n"/>
     </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mon_Boss_Body_B01_Atk6_Shoot       </t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mon_Boss_Body_B01_Atk6_Shoot       </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/module/waapi/waapi_音频资源导入自动化/资源导入记录表.xlsx
+++ b/module/waapi/waapi_音频资源导入自动化/资源导入记录表.xlsx
@@ -15140,12 +15140,12 @@
       <c r="G759" s="17" t="n"/>
     </row>
     <row r="760">
-      <c r="A760" t="inlineStr">
+      <c r="A760" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">Mon_Boss_Body_B01_Atk6_Shoot       </t>
         </is>
       </c>
-      <c r="B760" t="inlineStr">
+      <c r="B760" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">Mon_Boss_Body_B01_Atk6_Shoot       </t>
         </is>
